--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC580CEA-9988-453B-AD97-A9823C5112C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FAC918-CAF0-4878-A21A-DFFC4ACC9FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>point 2</t>
   </si>
@@ -191,24 +180,6 @@
     <t>Vertical and horizontal resolutions</t>
   </si>
   <si>
-    <t>D^2=(LAT1-LAT2)^2+(COEF*LAT1-COEF*LAT2)^2</t>
-  </si>
-  <si>
-    <t>D^2-(LAT1-LAT2)^2=COEF^2*(LAT1-LAT2)^2</t>
-  </si>
-  <si>
-    <t>(D^2-(LAT1-LAT2)^2)/(LAT1-LAT2)^2=COEF^2</t>
-  </si>
-  <si>
-    <t>COEF=SQRT((D^2-(LAT1-LAT2)^2)/(LAT1-LAT2)^2)</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>COEF=SQRT((D^2-(LAT1-LAT2)^2))/(LAT1-LAT2)</t>
-  </si>
-  <si>
     <t>LAT1</t>
   </si>
   <si>
@@ -222,6 +193,45 @@
   </si>
   <si>
     <t>COEF</t>
+  </si>
+  <si>
+    <t>D^2=RES_LAT^2*(LAT1-LAT2)^2+RES_LONG^2*(LONG1-LONG2)^2</t>
+  </si>
+  <si>
+    <t>COEF=RES_LAT/RES_LONG</t>
+  </si>
+  <si>
+    <t>LAT1-LAT2</t>
+  </si>
+  <si>
+    <t>LONG1-LONG2</t>
+  </si>
+  <si>
+    <t>RES_LONG</t>
+  </si>
+  <si>
+    <t>RES_LAT^2*(LAT1-LAT2)^2+RES_LONG^2*(LONG1-LONG2)^2</t>
+  </si>
+  <si>
+    <t>RES_LAT</t>
+  </si>
+  <si>
+    <t>'D^2</t>
+  </si>
+  <si>
+    <t>iter 0</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -313,6 +323,1108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$71:$O$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-282.71663955491636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-282.71665914555149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-282.71671411628893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-282.71673750809214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-282.71671411628893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-282.71663575374833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-282.71658458417886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-282.71644744973275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-282.71624540303293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-282.71608663116888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-282.71594160198924</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-282.71567084186751</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-282.71547084195038</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-282.71535329813946</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-282.71533750867235</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-282.71522785959496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-282.71503955557944</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-282.71501207021072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-282.71511353215698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-282.71528224553737</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-282.71543107588502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-282.71559978926535</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-282.71561148516696</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-282.71548429223719</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-282.715427274717</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-282.71535680690994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-282.7153018361725</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-282.71519598826313</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-282.71502727488274</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-282.71479189486337</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-282.71450183650404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-282.71430183658691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-282.71399978992849</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-282.71374891283949</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-282.71352142755364</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-282.7133743515912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$71:$P$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1193288.8124660924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1193290.3563251016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1193292.9381953767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1193295.1048611454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1193298.3680176875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1193300.7130459554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1193301.70719759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1193302.7627527083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1193303.5346822131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1193304.1282492185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1193304.6165531096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1193305.1077809762</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1193306.0551490046</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1193307.9849727661</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1193310.8943282857</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1193312.2305850419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1193314.2773678191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1193316.3563143259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1193318.8212255852</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1193320.1574823414</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1193320.9878913539</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1193323.3036798679</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1193324.6370126486</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1193327.3826255456</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1193329.8913964357</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1193331.1954894627</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1193332.622389456</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1193333.809523467</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1193334.2247279731</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1193334.0171257199</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1193333.4527984685</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1193332.5931497021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1193332.1457814663</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1193331.7919804433</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1193331.7013372059</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1193331.566834338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0E9-4DEB-B4E0-EED14AD88C2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489638383"/>
+        <c:axId val="244834143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="489638383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244834143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="244834143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489638383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ECA90F-4549-46E0-9E8C-DC7EA071180F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,16 +1744,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590E80B-3FF8-468B-9994-B4031C3F2DF3}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R98" sqref="R98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="3" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -799,7 +1915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15">
+    <row r="25" spans="1:14">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>7</v>
@@ -808,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15">
+    <row r="26" spans="1:14">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
@@ -825,7 +1941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15">
+    <row r="27" spans="1:14">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
@@ -871,7 +1987,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -881,9 +1997,7 @@
       <c r="C32">
         <v>-96.689130800000001</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33">
@@ -892,8 +2006,12 @@
       <c r="C33">
         <v>-96.689137500000001</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>53</v>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33">
+        <f>B21</f>
+        <v>40.811470014009501</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -903,8 +2021,12 @@
       <c r="C34">
         <v>-96.689156299999993</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>54</v>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34">
+        <f>C21</f>
+        <v>40.8190857586658</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -915,7 +2037,11 @@
         <v>-96.689164300000002</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="H35">
+        <f>B22</f>
+        <v>-96.687916042139094</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -925,8 +2051,12 @@
       <c r="C36">
         <v>-96.689156299999993</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>56</v>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36">
+        <f>C22</f>
+        <v>-96.691201279725405</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -945,11 +2075,11 @@
         <v>-96.689111999999994</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H38">
-        <f>B21</f>
-        <v>40.811470014009501</v>
+        <f>H35-H36</f>
+        <v>3.2852375863114958E-3</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -963,8 +2093,8 @@
         <v>58</v>
       </c>
       <c r="H39">
-        <f>C21</f>
-        <v>40.8190857586658</v>
+        <f>H33-H34</f>
+        <v>-7.615744656298773E-3</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -974,13 +2104,6 @@
       <c r="C40">
         <v>-96.688996000000003</v>
       </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40">
-        <f>B22</f>
-        <v>-96.687916042139094</v>
-      </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41">
@@ -989,12 +2112,8 @@
       <c r="C41">
         <v>-96.688941700000001</v>
       </c>
-      <c r="G41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41">
-        <f>C22</f>
-        <v>-96.691201279725405</v>
+      <c r="G41" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -1004,13 +2123,6 @@
       <c r="C42">
         <v>-96.688892100000004</v>
       </c>
-      <c r="G42" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42">
-        <f>SQRT(H28^2-(H38-H39)^2)/(H38-H39)</f>
-        <v>-29239.753946529199</v>
-      </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43">
@@ -1019,6 +2131,9 @@
       <c r="C43">
         <v>-96.688799500000002</v>
       </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44">
@@ -1027,6 +2142,9 @@
       <c r="C44">
         <v>-96.688731099999998</v>
       </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45">
@@ -1035,6 +2153,10 @@
       <c r="C45">
         <v>-96.688690899999997</v>
       </c>
+      <c r="G45">
+        <f>H28*H28</f>
+        <v>49587.495806250001</v>
+      </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46">
@@ -1043,6 +2165,9 @@
       <c r="C46">
         <v>-96.688685500000005</v>
       </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47">
@@ -1051,6 +2176,10 @@
       <c r="C47">
         <v>-96.688648000000001</v>
       </c>
+      <c r="G47">
+        <f>H28/ABS(H39)</f>
+        <v>29239.753963629209</v>
+      </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48">
@@ -1059,48 +2188,69 @@
       <c r="C48">
         <v>-96.688583600000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:3">
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49">
         <v>40.811436299999997</v>
       </c>
       <c r="C49">
         <v>-96.688574200000005</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
+      <c r="G49">
+        <f>H28/ABS(H38)</f>
+        <v>67782.768871220978</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50">
         <v>40.811520600000001</v>
       </c>
       <c r="C50">
         <v>-96.688608900000006</v>
       </c>
-    </row>
-    <row r="51" spans="2:3">
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51">
         <v>40.811566300000003</v>
       </c>
       <c r="C51">
         <v>-96.688666600000005</v>
       </c>
-    </row>
-    <row r="52" spans="2:3">
+      <c r="G51" s="5">
+        <f>G47^2*H39^2+G49^2*(H38)^2</f>
+        <v>99174.991612500002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52">
         <v>40.811594700000001</v>
       </c>
       <c r="C52">
         <v>-96.688717499999996</v>
       </c>
-    </row>
-    <row r="53" spans="2:3">
+      <c r="G52" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53">
         <v>40.811673900000002</v>
       </c>
       <c r="C53">
         <v>-96.688775199999995</v>
       </c>
-    </row>
-    <row r="54" spans="2:3">
+      <c r="G53">
+        <f>G47/G49</f>
+        <v>0.43137444000231367</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
       <c r="B54">
         <v>40.811719500000002</v>
       </c>
@@ -1108,103 +2258,269 @@
         <v>-96.688779199999999</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:10">
       <c r="B55">
         <v>40.811813399999998</v>
       </c>
       <c r="C55">
         <v>-96.688735699999995</v>
       </c>
-    </row>
-    <row r="56" spans="2:3">
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
       <c r="B56">
         <v>40.811899199999999</v>
       </c>
       <c r="C56">
         <v>-96.688716200000002</v>
       </c>
-    </row>
-    <row r="57" spans="2:3">
+      <c r="G56">
+        <v>1E-4</v>
+      </c>
+      <c r="H56">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I56">
+        <f>G56*H56</f>
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="J56">
+        <f>H56^2*$H$39^2+I56^2*$H$38^2</f>
+        <v>49587.495898524357</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
       <c r="B57">
         <v>40.811943800000002</v>
       </c>
       <c r="C57">
         <v>-96.688692099999997</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
+      <c r="G57">
+        <v>0.1</v>
+      </c>
+      <c r="H57">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ref="I57:I66" si="0">G57*H57</f>
+        <v>2923.9753963629209</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:J66" si="1">H57^2*$H$39^2+I57^2*$H$38^2</f>
+        <v>49679.770156071383</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58">
         <v>40.811992600000004</v>
       </c>
       <c r="C58">
         <v>-96.688673300000005</v>
       </c>
-    </row>
-    <row r="59" spans="2:3">
+      <c r="G58">
+        <v>0.2</v>
+      </c>
+      <c r="H58">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>5847.9507927258419</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>49956.593205535508</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59">
         <v>40.812033200000002</v>
       </c>
       <c r="C59">
         <v>-96.688637099999994</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
+      <c r="G59">
+        <v>0.3</v>
+      </c>
+      <c r="H59">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>8771.9261890887628</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>50417.96495464239</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
       <c r="B60">
         <v>40.812047399999997</v>
       </c>
       <c r="C60">
         <v>-96.688579399999995</v>
       </c>
-    </row>
-    <row r="61" spans="2:3">
+      <c r="G60">
+        <v>0.4</v>
+      </c>
+      <c r="H60">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>11695.901585451684</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>51063.885403392022</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61">
         <v>40.8120403</v>
       </c>
       <c r="C61">
         <v>-96.688498899999999</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
+      <c r="G61">
+        <v>0.5</v>
+      </c>
+      <c r="H61">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>14619.876981814605</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>51894.354551784403</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
       <c r="B62">
         <v>40.812021000000001</v>
       </c>
       <c r="C62">
         <v>-96.688399700000005</v>
       </c>
-    </row>
-    <row r="63" spans="2:3">
+      <c r="G62">
+        <v>0.6</v>
+      </c>
+      <c r="H62">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>17543.852378177526</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>52909.372399819535</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
       <c r="B63">
         <v>40.811991599999999</v>
       </c>
       <c r="C63">
         <v>-96.688331300000002</v>
       </c>
-    </row>
-    <row r="64" spans="2:3">
+      <c r="G63">
+        <v>0.7</v>
+      </c>
+      <c r="H63">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>20467.827774540445</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>54108.938947497423</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
       <c r="B64">
         <v>40.811976299999998</v>
       </c>
       <c r="C64">
         <v>-96.688227999999995</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="G64">
+        <v>0.8</v>
+      </c>
+      <c r="H64">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>23391.803170903368</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>55493.054194818062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="B65">
         <v>40.811964199999998</v>
       </c>
       <c r="C65">
         <v>-96.688142200000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="G65">
+        <v>0.9</v>
+      </c>
+      <c r="H65">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>26315.77856726629</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>57061.71814178145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="B66">
         <v>40.811961099999998</v>
       </c>
       <c r="C66">
         <v>-96.688064400000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>29239.753963629209</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>58814.930788387588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="B67">
         <v>40.811956500000001</v>
       </c>
@@ -1212,7 +2528,7 @@
         <v>-96.688014100000004</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -1220,36 +2536,173 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="70" spans="1:16">
+      <c r="H70" t="s">
+        <v>65</v>
+      </c>
+      <c r="I70" t="s">
+        <v>66</v>
+      </c>
+      <c r="K70" t="s">
+        <v>62</v>
+      </c>
+      <c r="L70" t="s">
+        <v>60</v>
+      </c>
+      <c r="N70" t="s">
+        <v>68</v>
+      </c>
+      <c r="O70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>39</v>
       </c>
       <c r="B71">
         <v>96</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="H71">
+        <v>40.810494300000002</v>
+      </c>
+      <c r="I71">
+        <v>-96.689130800000001</v>
+      </c>
+      <c r="K71">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L71">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N71">
+        <f>H71*K71</f>
+        <v>1193288.8124660924</v>
+      </c>
+      <c r="O71">
+        <f>I71*L71</f>
+        <v>-282.71663955491636</v>
+      </c>
+      <c r="P71">
+        <v>1193288.8124660924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>40</v>
       </c>
       <c r="B72">
         <v>800</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="H72">
+        <v>40.810547100000001</v>
+      </c>
+      <c r="I72">
+        <v>-96.689137500000001</v>
+      </c>
+      <c r="K72">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L72">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N72">
+        <f t="shared" ref="N72:P106" si="2">H72*K72</f>
+        <v>1193290.3563251016</v>
+      </c>
+      <c r="O72">
+        <f t="shared" ref="O72:O106" si="3">I72*L72</f>
+        <v>-282.71665914555149</v>
+      </c>
+      <c r="P72">
+        <v>1193290.3563251016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>41</v>
       </c>
       <c r="B73">
         <v>360</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="H73">
+        <v>40.810635400000002</v>
+      </c>
+      <c r="I73">
+        <v>-96.689156299999993</v>
+      </c>
+      <c r="K73">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L73">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="2"/>
+        <v>1193292.9381953767</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="3"/>
+        <v>-282.71671411628893</v>
+      </c>
+      <c r="P73">
+        <v>1193292.9381953767</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="H74">
+        <v>40.810709500000002</v>
+      </c>
+      <c r="I74">
+        <v>-96.689164300000002</v>
+      </c>
+      <c r="K74">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L74">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="2"/>
+        <v>1193295.1048611454</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="3"/>
+        <v>-282.71673750809214</v>
+      </c>
+      <c r="P74">
+        <v>1193295.1048611454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="H75">
+        <v>40.810821099999998</v>
+      </c>
+      <c r="I75">
+        <v>-96.689156299999993</v>
+      </c>
+      <c r="K75">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L75">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="2"/>
+        <v>1193298.3680176875</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="3"/>
+        <v>-282.71671411628893</v>
+      </c>
+      <c r="P75">
+        <v>1193298.3680176875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -1257,8 +2710,31 @@
         <f>B72/$B$71</f>
         <v>8.3333333333333339</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="H76">
+        <v>40.810901299999998</v>
+      </c>
+      <c r="I76">
+        <v>-96.689129500000007</v>
+      </c>
+      <c r="K76">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L76">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="2"/>
+        <v>1193300.7130459554</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="3"/>
+        <v>-282.71663575374833</v>
+      </c>
+      <c r="P76">
+        <v>1193300.7130459554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -1266,13 +2742,84 @@
         <f>B73/$B$71</f>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="H77">
+        <v>40.810935299999997</v>
+      </c>
+      <c r="I77">
+        <v>-96.689111999999994</v>
+      </c>
+      <c r="K77">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L77">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="2"/>
+        <v>1193301.70719759</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="3"/>
+        <v>-282.71658458417886</v>
+      </c>
+      <c r="P77">
+        <v>1193301.70719759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="H78">
+        <v>40.8109714</v>
+      </c>
+      <c r="I78">
+        <v>-96.689065099999993</v>
+      </c>
+      <c r="K78">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L78">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="2"/>
+        <v>1193302.7627527083</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="3"/>
+        <v>-282.71644744973275</v>
+      </c>
+      <c r="P78">
+        <v>1193302.7627527083</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="H79">
+        <v>40.810997800000003</v>
+      </c>
+      <c r="I79">
+        <v>-96.688996000000003</v>
+      </c>
+      <c r="K79">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L79">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="2"/>
+        <v>1193303.5346822131</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="3"/>
+        <v>-282.71624540303293</v>
+      </c>
+      <c r="P79">
+        <v>1193303.5346822131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -1280,14 +2827,685 @@
         <f>B72/$B$71*25.4</f>
         <v>211.66666666666666</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="H80">
+        <v>40.811018099999998</v>
+      </c>
+      <c r="I80">
+        <v>-96.688941700000001</v>
+      </c>
+      <c r="K80">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L80">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="2"/>
+        <v>1193304.1282492185</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="3"/>
+        <v>-282.71608663116888</v>
+      </c>
+      <c r="P80">
+        <v>1193304.1282492185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>41</v>
       </c>
       <c r="B81">
         <f>B73/$B$71*25.4</f>
         <v>95.25</v>
+      </c>
+      <c r="H81">
+        <v>40.811034800000002</v>
+      </c>
+      <c r="I81">
+        <v>-96.688892100000004</v>
+      </c>
+      <c r="K81">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L81">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="2"/>
+        <v>1193304.6165531096</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="3"/>
+        <v>-282.71594160198924</v>
+      </c>
+      <c r="P81">
+        <v>1193304.6165531096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="H82">
+        <v>40.811051599999999</v>
+      </c>
+      <c r="I82">
+        <v>-96.688799500000002</v>
+      </c>
+      <c r="K82">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L82">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="2"/>
+        <v>1193305.1077809762</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="3"/>
+        <v>-282.71567084186751</v>
+      </c>
+      <c r="P82">
+        <v>1193305.1077809762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="H83">
+        <v>40.811084000000001</v>
+      </c>
+      <c r="I83">
+        <v>-96.688731099999998</v>
+      </c>
+      <c r="K83">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L83">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="2"/>
+        <v>1193306.0551490046</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="3"/>
+        <v>-282.71547084195038</v>
+      </c>
+      <c r="P83">
+        <v>1193306.0551490046</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="H84">
+        <v>40.811149999999998</v>
+      </c>
+      <c r="I84">
+        <v>-96.688690899999997</v>
+      </c>
+      <c r="K84">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L84">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="2"/>
+        <v>1193307.9849727661</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="3"/>
+        <v>-282.71535329813946</v>
+      </c>
+      <c r="P84">
+        <v>1193307.9849727661</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="H85">
+        <v>40.811249500000002</v>
+      </c>
+      <c r="I85">
+        <v>-96.688685500000005</v>
+      </c>
+      <c r="K85">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L85">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="2"/>
+        <v>1193310.8943282857</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="3"/>
+        <v>-282.71533750867235</v>
+      </c>
+      <c r="P85">
+        <v>1193310.8943282857</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="H86">
+        <v>40.811295200000004</v>
+      </c>
+      <c r="I86">
+        <v>-96.688648000000001</v>
+      </c>
+      <c r="K86">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L86">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="2"/>
+        <v>1193312.2305850419</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="3"/>
+        <v>-282.71522785959496</v>
+      </c>
+      <c r="P86">
+        <v>1193312.2305850419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="H87">
+        <v>40.811365199999997</v>
+      </c>
+      <c r="I87">
+        <v>-96.688583600000001</v>
+      </c>
+      <c r="K87">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L87">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="2"/>
+        <v>1193314.2773678191</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="3"/>
+        <v>-282.71503955557944</v>
+      </c>
+      <c r="P87">
+        <v>1193314.2773678191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="H88">
+        <v>40.811436299999997</v>
+      </c>
+      <c r="I88">
+        <v>-96.688574200000005</v>
+      </c>
+      <c r="K88">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L88">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="2"/>
+        <v>1193316.3563143259</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="3"/>
+        <v>-282.71501207021072</v>
+      </c>
+      <c r="P88">
+        <v>1193316.3563143259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="H89">
+        <v>40.811520600000001</v>
+      </c>
+      <c r="I89">
+        <v>-96.688608900000006</v>
+      </c>
+      <c r="K89">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L89">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="2"/>
+        <v>1193318.8212255852</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="3"/>
+        <v>-282.71511353215698</v>
+      </c>
+      <c r="P89">
+        <v>1193318.8212255852</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="H90">
+        <v>40.811566300000003</v>
+      </c>
+      <c r="I90">
+        <v>-96.688666600000005</v>
+      </c>
+      <c r="K90">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L90">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="2"/>
+        <v>1193320.1574823414</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="3"/>
+        <v>-282.71528224553737</v>
+      </c>
+      <c r="P90">
+        <v>1193320.1574823414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="H91">
+        <v>40.811594700000001</v>
+      </c>
+      <c r="I91">
+        <v>-96.688717499999996</v>
+      </c>
+      <c r="K91">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L91">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="2"/>
+        <v>1193320.9878913539</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="3"/>
+        <v>-282.71543107588502</v>
+      </c>
+      <c r="P91">
+        <v>1193320.9878913539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="H92">
+        <v>40.811673900000002</v>
+      </c>
+      <c r="I92">
+        <v>-96.688775199999995</v>
+      </c>
+      <c r="K92">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L92">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="2"/>
+        <v>1193323.3036798679</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="3"/>
+        <v>-282.71559978926535</v>
+      </c>
+      <c r="P92">
+        <v>1193323.3036798679</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="H93">
+        <v>40.811719500000002</v>
+      </c>
+      <c r="I93">
+        <v>-96.688779199999999</v>
+      </c>
+      <c r="K93">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L93">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="2"/>
+        <v>1193324.6370126486</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="3"/>
+        <v>-282.71561148516696</v>
+      </c>
+      <c r="P93">
+        <v>1193324.6370126486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="H94">
+        <v>40.811813399999998</v>
+      </c>
+      <c r="I94">
+        <v>-96.688735699999995</v>
+      </c>
+      <c r="K94">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L94">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="2"/>
+        <v>1193327.3826255456</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="3"/>
+        <v>-282.71548429223719</v>
+      </c>
+      <c r="P94">
+        <v>1193327.3826255456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="H95">
+        <v>40.811899199999999</v>
+      </c>
+      <c r="I95">
+        <v>-96.688716200000002</v>
+      </c>
+      <c r="K95">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L95">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="2"/>
+        <v>1193329.8913964357</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="3"/>
+        <v>-282.715427274717</v>
+      </c>
+      <c r="P95">
+        <v>1193329.8913964357</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="H96">
+        <v>40.811943800000002</v>
+      </c>
+      <c r="I96">
+        <v>-96.688692099999997</v>
+      </c>
+      <c r="K96">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L96">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="2"/>
+        <v>1193331.1954894627</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="3"/>
+        <v>-282.71535680690994</v>
+      </c>
+      <c r="P96">
+        <v>1193331.1954894627</v>
+      </c>
+    </row>
+    <row r="97" spans="8:16">
+      <c r="H97">
+        <v>40.811992600000004</v>
+      </c>
+      <c r="I97">
+        <v>-96.688673300000005</v>
+      </c>
+      <c r="K97">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L97">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="2"/>
+        <v>1193332.622389456</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="3"/>
+        <v>-282.7153018361725</v>
+      </c>
+      <c r="P97">
+        <v>1193332.622389456</v>
+      </c>
+    </row>
+    <row r="98" spans="8:16">
+      <c r="H98">
+        <v>40.812033200000002</v>
+      </c>
+      <c r="I98">
+        <v>-96.688637099999994</v>
+      </c>
+      <c r="K98">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L98">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="2"/>
+        <v>1193333.809523467</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="3"/>
+        <v>-282.71519598826313</v>
+      </c>
+      <c r="P98">
+        <v>1193333.809523467</v>
+      </c>
+    </row>
+    <row r="99" spans="8:16">
+      <c r="H99">
+        <v>40.812047399999997</v>
+      </c>
+      <c r="I99">
+        <v>-96.688579399999995</v>
+      </c>
+      <c r="K99">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L99">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="2"/>
+        <v>1193334.2247279731</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="3"/>
+        <v>-282.71502727488274</v>
+      </c>
+      <c r="P99">
+        <v>1193334.2247279731</v>
+      </c>
+    </row>
+    <row r="100" spans="8:16">
+      <c r="H100">
+        <v>40.8120403</v>
+      </c>
+      <c r="I100">
+        <v>-96.688498899999999</v>
+      </c>
+      <c r="K100">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L100">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="2"/>
+        <v>1193334.0171257199</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="3"/>
+        <v>-282.71479189486337</v>
+      </c>
+      <c r="P100">
+        <v>1193334.0171257199</v>
+      </c>
+    </row>
+    <row r="101" spans="8:16">
+      <c r="H101">
+        <v>40.812021000000001</v>
+      </c>
+      <c r="I101">
+        <v>-96.688399700000005</v>
+      </c>
+      <c r="K101">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L101">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="2"/>
+        <v>1193333.4527984685</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="3"/>
+        <v>-282.71450183650404</v>
+      </c>
+      <c r="P101">
+        <v>1193333.4527984685</v>
+      </c>
+    </row>
+    <row r="102" spans="8:16">
+      <c r="H102">
+        <v>40.811991599999999</v>
+      </c>
+      <c r="I102">
+        <v>-96.688331300000002</v>
+      </c>
+      <c r="K102">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L102">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="2"/>
+        <v>1193332.5931497021</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="3"/>
+        <v>-282.71430183658691</v>
+      </c>
+      <c r="P102">
+        <v>1193332.5931497021</v>
+      </c>
+    </row>
+    <row r="103" spans="8:16">
+      <c r="H103">
+        <v>40.811976299999998</v>
+      </c>
+      <c r="I103">
+        <v>-96.688227999999995</v>
+      </c>
+      <c r="K103">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L103">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="2"/>
+        <v>1193332.1457814663</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="3"/>
+        <v>-282.71399978992849</v>
+      </c>
+      <c r="P103">
+        <v>1193332.1457814663</v>
+      </c>
+    </row>
+    <row r="104" spans="8:16">
+      <c r="H104">
+        <v>40.811964199999998</v>
+      </c>
+      <c r="I104">
+        <v>-96.688142200000001</v>
+      </c>
+      <c r="K104">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L104">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="2"/>
+        <v>1193331.7919804433</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="3"/>
+        <v>-282.71374891283949</v>
+      </c>
+      <c r="P104">
+        <v>1193331.7919804433</v>
+      </c>
+    </row>
+    <row r="105" spans="8:16">
+      <c r="H105">
+        <v>40.811961099999998</v>
+      </c>
+      <c r="I105">
+        <v>-96.688064400000002</v>
+      </c>
+      <c r="K105">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L105">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="2"/>
+        <v>1193331.7013372059</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="3"/>
+        <v>-282.71352142755364</v>
+      </c>
+      <c r="P105">
+        <v>1193331.7013372059</v>
+      </c>
+    </row>
+    <row r="106" spans="8:16">
+      <c r="H106">
+        <v>40.811956500000001</v>
+      </c>
+      <c r="I106">
+        <v>-96.688014100000004</v>
+      </c>
+      <c r="K106">
+        <v>29239.753963629209</v>
+      </c>
+      <c r="L106">
+        <v>2.9239753963629211</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="2"/>
+        <v>1193331.566834338</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="3"/>
+        <v>-282.7133743515912</v>
+      </c>
+      <c r="P106">
+        <v>1193331.566834338</v>
       </c>
     </row>
   </sheetData>
@@ -1300,5 +3518,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FAC918-CAF0-4878-A21A-DFFC4ACC9FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2BF39-BA7E-4177-9EFA-EA56D733F948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>point 2</t>
   </si>
@@ -222,23 +222,44 @@
     <t>iter 0</t>
   </si>
   <si>
-    <t>LAT</t>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>X [in]</t>
+  </si>
+  <si>
+    <t>Y [in]</t>
+  </si>
+  <si>
+    <t>Map size</t>
+  </si>
+  <si>
+    <t>11 x 17</t>
+  </si>
+  <si>
+    <t>Magnetic North Orientation (original value)</t>
+  </si>
+  <si>
+    <t>Rotated map</t>
+  </si>
+  <si>
+    <t>rotation angle</t>
+  </si>
+  <si>
+    <t>Polaris North Orientation (original value)</t>
+  </si>
+  <si>
+    <t>Device size</t>
+  </si>
+  <si>
+    <t>8.333 x 3.75</t>
+  </si>
+  <si>
+    <t>move</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -307,6 +328,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -314,6 +338,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB2B2B2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -339,39 +368,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2126820857439487E-2"/>
+          <c:y val="1.2084084084084085E-2"/>
+          <c:w val="0.91756673404158651"/>
+          <c:h val="0.97990790790790805"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -379,259 +388,61 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$71:$O$106</c:f>
+              <c:f>Sheet1!$Q$3:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-282.71663955491636</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-282.71665914555149</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-282.71671411628893</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-282.71673750809214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-282.71671411628893</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-282.71663575374833</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-282.71658458417886</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-282.71644744973275</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-282.71624540303293</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-282.71608663116888</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-282.71594160198924</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-282.71567084186751</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-282.71547084195038</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-282.71535329813946</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-282.71533750867235</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-282.71522785959496</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-282.71503955557944</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-282.71501207021072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-282.71511353215698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-282.71528224553737</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-282.71543107588502</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-282.71559978926535</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-282.71561148516696</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-282.71548429223719</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-282.715427274717</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-282.71535680690994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-282.7153018361725</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-282.71519598826313</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-282.71502727488274</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-282.71479189486337</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-282.71450183650404</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-282.71430183658691</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-282.71399978992849</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-282.71374891283949</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-282.71352142755364</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-282.7133743515912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$71:$P$106</c:f>
+              <c:f>Sheet1!$R$3:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1193288.8124660924</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1193290.3563251016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1193292.9381953767</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1193295.1048611454</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1193298.3680176875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1193300.7130459554</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1193301.70719759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1193302.7627527083</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1193303.5346822131</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1193304.1282492185</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1193304.6165531096</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1193305.1077809762</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1193306.0551490046</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1193307.9849727661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1193310.8943282857</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1193312.2305850419</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1193314.2773678191</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1193316.3563143259</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1193318.8212255852</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1193320.1574823414</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1193320.9878913539</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1193323.3036798679</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1193324.6370126486</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1193327.3826255456</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1193329.8913964357</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1193331.1954894627</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1193332.622389456</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1193333.809523467</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1193334.2247279731</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1193334.0171257199</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1193333.4527984685</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1193332.5931497021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1193332.1457814663</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1193331.7919804433</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1193331.7013372059</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1193331.566834338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,7 +450,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D0E9-4DEB-B4E0-EED14AD88C2D}"/>
+              <c16:uniqueId val="{00000000-81A2-4083-B88A-F7C735C1C2EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -651,13 +462,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489638383"/>
-        <c:axId val="244834143"/>
+        <c:axId val="270254335"/>
+        <c:axId val="119164207"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489638383"/>
+        <c:axId val="270254335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -712,14 +524,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244834143"/>
+        <c:crossAx val="119164207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244834143"/>
+        <c:axId val="119164207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-17"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -774,12 +588,324 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489638383"/>
+        <c:crossAx val="270254335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23006863185029569"/>
+          <c:y val="7.881764651549332E-2"/>
+          <c:w val="0.62542052733981701"/>
+          <c:h val="0.78486746110221217"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.973204552858066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7873444992079364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.18586005365013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$10:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.76732121118537833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17.725910065602392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16.958588854417012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F47F-48DB-9C16-0196368B487F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="69850" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$76:$Q$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$76:$R$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F47F-48DB-9C16-0196368B487F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="327209967"/>
+        <c:axId val="273033711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="327209967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.9732"/>
+          <c:min val="-1.1859"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="273033711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="273033711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0"/>
+          <c:min val="-17.725999999999999"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="327209967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -799,7 +925,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="B2B2B2">
+        <a:alpha val="25098"/>
+      </a:srgbClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -870,6 +998,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1386,27 +1554,681 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>363455</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>509759</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>77463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8AA51D-4AA0-4CF2-878E-E953827B0C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34296268" y="1810251"/>
+          <a:ext cx="11195304" cy="16912400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3D0E97-A6BD-4D0D-B218-AC6F9D5BCD27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17310652" y="1126435"/>
+          <a:ext cx="10081590" cy="15610173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ECA90F-4549-46E0-9E8C-DC7EA071180F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FACBB9-0EEF-4217-B577-F29E42AA2BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C1D2AC-7ABA-4D35-B7E8-CACDAF0D0DE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +2240,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1744,13 +2566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590E80B-3FF8-468B-9994-B4031C3F2DF3}">
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:AP83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R98" sqref="R98"/>
+    <sheetView tabSelected="1" topLeftCell="Z10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL46" sqref="AL46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -1758,73 +2580,221 @@
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
+      <c r="Q4" s="8">
+        <v>11</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="Q5" s="8">
+        <v>11</v>
+      </c>
+      <c r="R5" s="8">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25">
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25">
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9">
+        <v>-4</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25">
+      <c r="N10">
+        <f>COS($O$9*PI()/180)</f>
+        <v>0.9975640502598242</v>
+      </c>
+      <c r="O10">
+        <f>SIN($O$9*PI()/180)</f>
+        <v>-6.9756473744125302E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <f>N10*Q3-O10*R3</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <f>O10*Q3+N10*R3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25">
+      <c r="N11">
+        <f t="shared" ref="N11:N14" si="0">COS($O$9*PI()/180)</f>
+        <v>0.9975640502598242</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O14" si="1">SIN($O$9*PI()/180)</f>
+        <v>-6.9756473744125302E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" ref="Q11:Q14" si="2">N11*Q4-O11*R4</f>
+        <v>10.973204552858066</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" ref="R11:R14" si="3">O11*Q4+N11*R4</f>
+        <v>-0.76732121118537833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="17.25">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.9975640502598242</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>-6.9756473744125302E-2</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="2"/>
+        <v>9.7873444992079364</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="3"/>
+        <v>-17.725910065602392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.9975640502598242</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>-6.9756473744125302E-2</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.18586005365013</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="3"/>
+        <v>-16.958588854417012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.9975640502598242</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>-6.9756473744125302E-2</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1832,12 +2802,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="Q16" s="8">
+        <f>-MIN(Q10:Q14)+MAX(Q10:Q14)</f>
+        <v>12.159064606508196</v>
+      </c>
+      <c r="R16" s="8">
+        <f>MIN(R10:R14)+MAX(R10:R14)</f>
+        <v>-17.725910065602392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1845,12 +2823,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +2845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1887,7 +2865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1909,13 +2887,14 @@
       <c r="N22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>7</v>
@@ -1924,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
@@ -1941,7 +2920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
@@ -1959,7 +2938,7 @@
         <v>0.22268250000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
         <v>47</v>
       </c>
@@ -1968,7 +2947,7 @@
         <v>222.6825</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1979,7 +2958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -1990,7 +2969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>40.810494300000002</v>
       </c>
@@ -1999,7 +2978,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>40.810547100000001</v>
       </c>
@@ -2014,7 +2993,7 @@
         <v>40.811470014009501</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>40.810635400000002</v>
       </c>
@@ -2029,7 +3008,7 @@
         <v>40.8190857586658</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>40.810709500000002</v>
       </c>
@@ -2044,7 +3023,7 @@
         <v>-96.687916042139094</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>40.810821099999998</v>
       </c>
@@ -2059,7 +3038,7 @@
         <v>-96.691201279725405</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>40.810901299999998</v>
       </c>
@@ -2067,7 +3046,7 @@
         <v>-96.689129500000007</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>40.810935299999997</v>
       </c>
@@ -2082,7 +3061,7 @@
         <v>3.2852375863114958E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>40.8109714</v>
       </c>
@@ -2097,7 +3076,7 @@
         <v>-7.615744656298773E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>40.810997800000003</v>
       </c>
@@ -2105,7 +3084,7 @@
         <v>-96.688996000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>40.811018099999998</v>
       </c>
@@ -2116,7 +3095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>40.811034800000002</v>
       </c>
@@ -2124,7 +3103,7 @@
         <v>-96.688892100000004</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>40.811051599999999</v>
       </c>
@@ -2135,7 +3114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>40.811084000000001</v>
       </c>
@@ -2146,19 +3125,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>40.811149999999998</v>
       </c>
       <c r="C45">
         <v>-96.688690899999997</v>
       </c>
-      <c r="G45">
-        <f>H28*H28</f>
-        <v>49587.495806250001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>40.811249500000002</v>
       </c>
@@ -2169,19 +3144,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>40.811295200000004</v>
       </c>
       <c r="C47">
         <v>-96.688648000000001</v>
       </c>
-      <c r="G47">
-        <f>H28/ABS(H39)</f>
-        <v>29239.753963629209</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>40.811365199999997</v>
       </c>
@@ -2192,19 +3163,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>40.811436299999997</v>
       </c>
       <c r="C49">
         <v>-96.688574200000005</v>
       </c>
-      <c r="G49">
-        <f>H28/ABS(H38)</f>
-        <v>67782.768871220978</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>40.811520600000001</v>
       </c>
@@ -2215,19 +3182,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>40.811566300000003</v>
       </c>
       <c r="C51">
         <v>-96.688666600000005</v>
       </c>
-      <c r="G51" s="5">
-        <f>G47^2*H39^2+G49^2*(H38)^2</f>
-        <v>99174.991612500002</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>40.811594700000001</v>
       </c>
@@ -2238,19 +3202,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>40.811673900000002</v>
       </c>
       <c r="C53">
         <v>-96.688775199999995</v>
       </c>
-      <c r="G53">
-        <f>G47/G49</f>
-        <v>0.43137444000231367</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>40.811719500000002</v>
       </c>
@@ -2258,269 +3218,103 @@
         <v>-96.688779199999999</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>40.811813399999998</v>
       </c>
       <c r="C55">
         <v>-96.688735699999995</v>
       </c>
-      <c r="G55" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I55" t="s">
-        <v>60</v>
-      </c>
-      <c r="J55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>40.811899199999999</v>
       </c>
       <c r="C56">
         <v>-96.688716200000002</v>
       </c>
-      <c r="G56">
-        <v>1E-4</v>
-      </c>
-      <c r="H56">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I56">
-        <f>G56*H56</f>
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="J56">
-        <f>H56^2*$H$39^2+I56^2*$H$38^2</f>
-        <v>49587.495898524357</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>40.811943800000002</v>
       </c>
       <c r="C57">
         <v>-96.688692099999997</v>
       </c>
-      <c r="G57">
-        <v>0.1</v>
-      </c>
-      <c r="H57">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I57">
-        <f t="shared" ref="I57:I66" si="0">G57*H57</f>
-        <v>2923.9753963629209</v>
-      </c>
-      <c r="J57">
-        <f t="shared" ref="J57:J66" si="1">H57^2*$H$39^2+I57^2*$H$38^2</f>
-        <v>49679.770156071383</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>40.811992600000004</v>
       </c>
       <c r="C58">
         <v>-96.688673300000005</v>
       </c>
-      <c r="G58">
-        <v>0.2</v>
-      </c>
-      <c r="H58">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>5847.9507927258419</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="1"/>
-        <v>49956.593205535508</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>40.812033200000002</v>
       </c>
       <c r="C59">
         <v>-96.688637099999994</v>
       </c>
-      <c r="G59">
-        <v>0.3</v>
-      </c>
-      <c r="H59">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>8771.9261890887628</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="1"/>
-        <v>50417.96495464239</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>40.812047399999997</v>
       </c>
       <c r="C60">
         <v>-96.688579399999995</v>
       </c>
-      <c r="G60">
-        <v>0.4</v>
-      </c>
-      <c r="H60">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>11695.901585451684</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="1"/>
-        <v>51063.885403392022</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>40.8120403</v>
       </c>
       <c r="C61">
         <v>-96.688498899999999</v>
       </c>
-      <c r="G61">
-        <v>0.5</v>
-      </c>
-      <c r="H61">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>14619.876981814605</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="1"/>
-        <v>51894.354551784403</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10">
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>40.812021000000001</v>
       </c>
       <c r="C62">
         <v>-96.688399700000005</v>
       </c>
-      <c r="G62">
-        <v>0.6</v>
-      </c>
-      <c r="H62">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>17543.852378177526</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="1"/>
-        <v>52909.372399819535</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>40.811991599999999</v>
       </c>
       <c r="C63">
         <v>-96.688331300000002</v>
       </c>
-      <c r="G63">
-        <v>0.7</v>
-      </c>
-      <c r="H63">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>20467.827774540445</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="1"/>
-        <v>54108.938947497423</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>40.811976299999998</v>
       </c>
       <c r="C64">
         <v>-96.688227999999995</v>
       </c>
-      <c r="G64">
-        <v>0.8</v>
-      </c>
-      <c r="H64">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="0"/>
-        <v>23391.803170903368</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="1"/>
-        <v>55493.054194818062</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>40.811964199999998</v>
       </c>
       <c r="C65">
         <v>-96.688142200000001</v>
       </c>
-      <c r="G65">
-        <v>0.9</v>
-      </c>
-      <c r="H65">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>26315.77856726629</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="1"/>
-        <v>57061.71814178145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>40.811961099999998</v>
       </c>
       <c r="C66">
         <v>-96.688064400000002</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>29239.753963629209</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="1"/>
-        <v>58814.930788387588</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>40.811956500000001</v>
       </c>
@@ -2528,7 +3322,7 @@
         <v>-96.688014100000004</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -2536,173 +3330,54 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
-      <c r="H70" t="s">
-        <v>65</v>
-      </c>
-      <c r="I70" t="s">
-        <v>66</v>
-      </c>
-      <c r="K70" t="s">
-        <v>62</v>
-      </c>
-      <c r="L70" t="s">
-        <v>60</v>
-      </c>
-      <c r="N70" t="s">
-        <v>68</v>
-      </c>
-      <c r="O70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
       <c r="B71">
         <v>96</v>
       </c>
-      <c r="H71">
-        <v>40.810494300000002</v>
-      </c>
-      <c r="I71">
-        <v>-96.689130800000001</v>
-      </c>
-      <c r="K71">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L71">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N71">
-        <f>H71*K71</f>
-        <v>1193288.8124660924</v>
-      </c>
-      <c r="O71">
-        <f>I71*L71</f>
-        <v>-282.71663955491636</v>
-      </c>
-      <c r="P71">
-        <v>1193288.8124660924</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>40</v>
       </c>
       <c r="B72">
         <v>800</v>
       </c>
-      <c r="H72">
-        <v>40.810547100000001</v>
-      </c>
-      <c r="I72">
-        <v>-96.689137500000001</v>
-      </c>
-      <c r="K72">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L72">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N72">
-        <f t="shared" ref="N72:P106" si="2">H72*K72</f>
-        <v>1193290.3563251016</v>
-      </c>
-      <c r="O72">
-        <f t="shared" ref="O72:O106" si="3">I72*L72</f>
-        <v>-282.71665914555149</v>
-      </c>
-      <c r="P72">
-        <v>1193290.3563251016</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
       <c r="B73">
         <v>360</v>
       </c>
-      <c r="H73">
-        <v>40.810635400000002</v>
-      </c>
-      <c r="I73">
-        <v>-96.689156299999993</v>
-      </c>
-      <c r="K73">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L73">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="2"/>
-        <v>1193292.9381953767</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="3"/>
-        <v>-282.71671411628893</v>
-      </c>
-      <c r="P73">
-        <v>1193292.9381953767</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="H74">
-        <v>40.810709500000002</v>
-      </c>
-      <c r="I74">
-        <v>-96.689164300000002</v>
-      </c>
-      <c r="K74">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L74">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="2"/>
-        <v>1193295.1048611454</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="3"/>
-        <v>-282.71673750809214</v>
-      </c>
-      <c r="P74">
-        <v>1193295.1048611454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="P73" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>42</v>
       </c>
-      <c r="H75">
-        <v>40.810821099999998</v>
-      </c>
-      <c r="I75">
-        <v>-96.689156299999993</v>
-      </c>
-      <c r="K75">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L75">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="2"/>
-        <v>1193298.3680176875</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="3"/>
-        <v>-282.71671411628893</v>
-      </c>
-      <c r="P75">
-        <v>1193298.3680176875</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="P75" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R75" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2710,31 +3385,19 @@
         <f>B72/$B$71</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="H76">
-        <v>40.810901299999998</v>
-      </c>
-      <c r="I76">
-        <v>-96.689129500000007</v>
-      </c>
-      <c r="K76">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L76">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="2"/>
-        <v>1193300.7130459554</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="3"/>
-        <v>-282.71663575374833</v>
-      </c>
-      <c r="P76">
-        <v>1193300.7130459554</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="P76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q76" s="8">
+        <f>0+$Q$73</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="8">
+        <f>0+$R$73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2742,84 +3405,39 @@
         <f>B73/$B$71</f>
         <v>3.75</v>
       </c>
-      <c r="H77">
-        <v>40.810935299999997</v>
-      </c>
-      <c r="I77">
-        <v>-96.689111999999994</v>
-      </c>
-      <c r="K77">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L77">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="2"/>
-        <v>1193301.70719759</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="3"/>
-        <v>-282.71658458417886</v>
-      </c>
-      <c r="P77">
-        <v>1193301.70719759</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="H78">
-        <v>40.8109714</v>
-      </c>
-      <c r="I78">
-        <v>-96.689065099999993</v>
-      </c>
-      <c r="K78">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L78">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="2"/>
-        <v>1193302.7627527083</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="3"/>
-        <v>-282.71644744973275</v>
-      </c>
-      <c r="P78">
-        <v>1193302.7627527083</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q77" s="8">
+        <f>3.75+$Q$73</f>
+        <v>3.75</v>
+      </c>
+      <c r="R77" s="8">
+        <f>0+$R$73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q78" s="8">
+        <f>3.75+$Q$73</f>
+        <v>3.75</v>
+      </c>
+      <c r="R78" s="8">
+        <f>-8.333+$R$73</f>
+        <v>-8.3330000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>43</v>
       </c>
-      <c r="H79">
-        <v>40.810997800000003</v>
-      </c>
-      <c r="I79">
-        <v>-96.688996000000003</v>
-      </c>
-      <c r="K79">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L79">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="2"/>
-        <v>1193303.5346822131</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="3"/>
-        <v>-282.71624540303293</v>
-      </c>
-      <c r="P79">
-        <v>1193303.5346822131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79" s="8">
+        <f t="shared" ref="Q77:Q83" si="4">0+$Q$73</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="8">
+        <f>-8.333+$R$73</f>
+        <v>-8.3330000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -2827,31 +3445,16 @@
         <f>B72/$B$71*25.4</f>
         <v>211.66666666666666</v>
       </c>
-      <c r="H80">
-        <v>40.811018099999998</v>
-      </c>
-      <c r="I80">
-        <v>-96.688941700000001</v>
-      </c>
-      <c r="K80">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L80">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="2"/>
-        <v>1193304.1282492185</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="3"/>
-        <v>-282.71608663116888</v>
-      </c>
-      <c r="P80">
-        <v>1193304.1282492185</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="8">
+        <f t="shared" ref="R77:R83" si="5">0+$R$73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -2859,654 +3462,16 @@
         <f>B73/$B$71*25.4</f>
         <v>95.25</v>
       </c>
-      <c r="H81">
-        <v>40.811034800000002</v>
-      </c>
-      <c r="I81">
-        <v>-96.688892100000004</v>
-      </c>
-      <c r="K81">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L81">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="2"/>
-        <v>1193304.6165531096</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="3"/>
-        <v>-282.71594160198924</v>
-      </c>
-      <c r="P81">
-        <v>1193304.6165531096</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="H82">
-        <v>40.811051599999999</v>
-      </c>
-      <c r="I82">
-        <v>-96.688799500000002</v>
-      </c>
-      <c r="K82">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L82">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="2"/>
-        <v>1193305.1077809762</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="3"/>
-        <v>-282.71567084186751</v>
-      </c>
-      <c r="P82">
-        <v>1193305.1077809762</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="H83">
-        <v>40.811084000000001</v>
-      </c>
-      <c r="I83">
-        <v>-96.688731099999998</v>
-      </c>
-      <c r="K83">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L83">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="2"/>
-        <v>1193306.0551490046</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="3"/>
-        <v>-282.71547084195038</v>
-      </c>
-      <c r="P83">
-        <v>1193306.0551490046</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="H84">
-        <v>40.811149999999998</v>
-      </c>
-      <c r="I84">
-        <v>-96.688690899999997</v>
-      </c>
-      <c r="K84">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L84">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="2"/>
-        <v>1193307.9849727661</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="3"/>
-        <v>-282.71535329813946</v>
-      </c>
-      <c r="P84">
-        <v>1193307.9849727661</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="H85">
-        <v>40.811249500000002</v>
-      </c>
-      <c r="I85">
-        <v>-96.688685500000005</v>
-      </c>
-      <c r="K85">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L85">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="2"/>
-        <v>1193310.8943282857</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="3"/>
-        <v>-282.71533750867235</v>
-      </c>
-      <c r="P85">
-        <v>1193310.8943282857</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="H86">
-        <v>40.811295200000004</v>
-      </c>
-      <c r="I86">
-        <v>-96.688648000000001</v>
-      </c>
-      <c r="K86">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L86">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="2"/>
-        <v>1193312.2305850419</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="3"/>
-        <v>-282.71522785959496</v>
-      </c>
-      <c r="P86">
-        <v>1193312.2305850419</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
-      <c r="H87">
-        <v>40.811365199999997</v>
-      </c>
-      <c r="I87">
-        <v>-96.688583600000001</v>
-      </c>
-      <c r="K87">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L87">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="2"/>
-        <v>1193314.2773678191</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="3"/>
-        <v>-282.71503955557944</v>
-      </c>
-      <c r="P87">
-        <v>1193314.2773678191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
-      <c r="H88">
-        <v>40.811436299999997</v>
-      </c>
-      <c r="I88">
-        <v>-96.688574200000005</v>
-      </c>
-      <c r="K88">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L88">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="2"/>
-        <v>1193316.3563143259</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="3"/>
-        <v>-282.71501207021072</v>
-      </c>
-      <c r="P88">
-        <v>1193316.3563143259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="H89">
-        <v>40.811520600000001</v>
-      </c>
-      <c r="I89">
-        <v>-96.688608900000006</v>
-      </c>
-      <c r="K89">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L89">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="2"/>
-        <v>1193318.8212255852</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="3"/>
-        <v>-282.71511353215698</v>
-      </c>
-      <c r="P89">
-        <v>1193318.8212255852</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="H90">
-        <v>40.811566300000003</v>
-      </c>
-      <c r="I90">
-        <v>-96.688666600000005</v>
-      </c>
-      <c r="K90">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L90">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="2"/>
-        <v>1193320.1574823414</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="3"/>
-        <v>-282.71528224553737</v>
-      </c>
-      <c r="P90">
-        <v>1193320.1574823414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="H91">
-        <v>40.811594700000001</v>
-      </c>
-      <c r="I91">
-        <v>-96.688717499999996</v>
-      </c>
-      <c r="K91">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L91">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="2"/>
-        <v>1193320.9878913539</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="3"/>
-        <v>-282.71543107588502</v>
-      </c>
-      <c r="P91">
-        <v>1193320.9878913539</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="H92">
-        <v>40.811673900000002</v>
-      </c>
-      <c r="I92">
-        <v>-96.688775199999995</v>
-      </c>
-      <c r="K92">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L92">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="2"/>
-        <v>1193323.3036798679</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="3"/>
-        <v>-282.71559978926535</v>
-      </c>
-      <c r="P92">
-        <v>1193323.3036798679</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="H93">
-        <v>40.811719500000002</v>
-      </c>
-      <c r="I93">
-        <v>-96.688779199999999</v>
-      </c>
-      <c r="K93">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L93">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="2"/>
-        <v>1193324.6370126486</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="3"/>
-        <v>-282.71561148516696</v>
-      </c>
-      <c r="P93">
-        <v>1193324.6370126486</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="H94">
-        <v>40.811813399999998</v>
-      </c>
-      <c r="I94">
-        <v>-96.688735699999995</v>
-      </c>
-      <c r="K94">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L94">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="2"/>
-        <v>1193327.3826255456</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="3"/>
-        <v>-282.71548429223719</v>
-      </c>
-      <c r="P94">
-        <v>1193327.3826255456</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="H95">
-        <v>40.811899199999999</v>
-      </c>
-      <c r="I95">
-        <v>-96.688716200000002</v>
-      </c>
-      <c r="K95">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L95">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="2"/>
-        <v>1193329.8913964357</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="3"/>
-        <v>-282.715427274717</v>
-      </c>
-      <c r="P95">
-        <v>1193329.8913964357</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="H96">
-        <v>40.811943800000002</v>
-      </c>
-      <c r="I96">
-        <v>-96.688692099999997</v>
-      </c>
-      <c r="K96">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L96">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="2"/>
-        <v>1193331.1954894627</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="3"/>
-        <v>-282.71535680690994</v>
-      </c>
-      <c r="P96">
-        <v>1193331.1954894627</v>
-      </c>
-    </row>
-    <row r="97" spans="8:16">
-      <c r="H97">
-        <v>40.811992600000004</v>
-      </c>
-      <c r="I97">
-        <v>-96.688673300000005</v>
-      </c>
-      <c r="K97">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L97">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="2"/>
-        <v>1193332.622389456</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="3"/>
-        <v>-282.7153018361725</v>
-      </c>
-      <c r="P97">
-        <v>1193332.622389456</v>
-      </c>
-    </row>
-    <row r="98" spans="8:16">
-      <c r="H98">
-        <v>40.812033200000002</v>
-      </c>
-      <c r="I98">
-        <v>-96.688637099999994</v>
-      </c>
-      <c r="K98">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L98">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="2"/>
-        <v>1193333.809523467</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="3"/>
-        <v>-282.71519598826313</v>
-      </c>
-      <c r="P98">
-        <v>1193333.809523467</v>
-      </c>
-    </row>
-    <row r="99" spans="8:16">
-      <c r="H99">
-        <v>40.812047399999997</v>
-      </c>
-      <c r="I99">
-        <v>-96.688579399999995</v>
-      </c>
-      <c r="K99">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L99">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="2"/>
-        <v>1193334.2247279731</v>
-      </c>
-      <c r="O99">
-        <f t="shared" si="3"/>
-        <v>-282.71502727488274</v>
-      </c>
-      <c r="P99">
-        <v>1193334.2247279731</v>
-      </c>
-    </row>
-    <row r="100" spans="8:16">
-      <c r="H100">
-        <v>40.8120403</v>
-      </c>
-      <c r="I100">
-        <v>-96.688498899999999</v>
-      </c>
-      <c r="K100">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L100">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="2"/>
-        <v>1193334.0171257199</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="3"/>
-        <v>-282.71479189486337</v>
-      </c>
-      <c r="P100">
-        <v>1193334.0171257199</v>
-      </c>
-    </row>
-    <row r="101" spans="8:16">
-      <c r="H101">
-        <v>40.812021000000001</v>
-      </c>
-      <c r="I101">
-        <v>-96.688399700000005</v>
-      </c>
-      <c r="K101">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L101">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="2"/>
-        <v>1193333.4527984685</v>
-      </c>
-      <c r="O101">
-        <f t="shared" si="3"/>
-        <v>-282.71450183650404</v>
-      </c>
-      <c r="P101">
-        <v>1193333.4527984685</v>
-      </c>
-    </row>
-    <row r="102" spans="8:16">
-      <c r="H102">
-        <v>40.811991599999999</v>
-      </c>
-      <c r="I102">
-        <v>-96.688331300000002</v>
-      </c>
-      <c r="K102">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L102">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="2"/>
-        <v>1193332.5931497021</v>
-      </c>
-      <c r="O102">
-        <f t="shared" si="3"/>
-        <v>-282.71430183658691</v>
-      </c>
-      <c r="P102">
-        <v>1193332.5931497021</v>
-      </c>
-    </row>
-    <row r="103" spans="8:16">
-      <c r="H103">
-        <v>40.811976299999998</v>
-      </c>
-      <c r="I103">
-        <v>-96.688227999999995</v>
-      </c>
-      <c r="K103">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L103">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="2"/>
-        <v>1193332.1457814663</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="3"/>
-        <v>-282.71399978992849</v>
-      </c>
-      <c r="P103">
-        <v>1193332.1457814663</v>
-      </c>
-    </row>
-    <row r="104" spans="8:16">
-      <c r="H104">
-        <v>40.811964199999998</v>
-      </c>
-      <c r="I104">
-        <v>-96.688142200000001</v>
-      </c>
-      <c r="K104">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L104">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="2"/>
-        <v>1193331.7919804433</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="3"/>
-        <v>-282.71374891283949</v>
-      </c>
-      <c r="P104">
-        <v>1193331.7919804433</v>
-      </c>
-    </row>
-    <row r="105" spans="8:16">
-      <c r="H105">
-        <v>40.811961099999998</v>
-      </c>
-      <c r="I105">
-        <v>-96.688064400000002</v>
-      </c>
-      <c r="K105">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L105">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="2"/>
-        <v>1193331.7013372059</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="3"/>
-        <v>-282.71352142755364</v>
-      </c>
-      <c r="P105">
-        <v>1193331.7013372059</v>
-      </c>
-    </row>
-    <row r="106" spans="8:16">
-      <c r="H106">
-        <v>40.811956500000001</v>
-      </c>
-      <c r="I106">
-        <v>-96.688014100000004</v>
-      </c>
-      <c r="K106">
-        <v>29239.753963629209</v>
-      </c>
-      <c r="L106">
-        <v>2.9239753963629211</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="2"/>
-        <v>1193331.566834338</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="3"/>
-        <v>-282.7133743515912</v>
-      </c>
-      <c r="P106">
-        <v>1193331.566834338</v>
-      </c>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2BF39-BA7E-4177-9EFA-EA56D733F948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCA44A-133E-439C-8FB5-9248599CD748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>point 2</t>
   </si>
@@ -253,13 +253,22 @@
   </si>
   <si>
     <t>move</t>
+  </si>
+  <si>
+    <t>Xmoves</t>
+  </si>
+  <si>
+    <t>Ymoves</t>
+  </si>
+  <si>
+    <t>center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2568,11 +2577,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590E80B-3FF8-468B-9994-B4031C3F2DF3}">
   <dimension ref="A1:AP83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL46" sqref="AL46"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="15030" ySplit="5040" topLeftCell="AT63" activePane="bottomLeft"/>
+      <selection activeCell="R12" sqref="R12"/>
+      <selection pane="topRight" activeCell="AL22" sqref="AL22"/>
+      <selection pane="bottomLeft" activeCell="P84" sqref="P84"/>
+      <selection pane="bottomRight" activeCell="AL57" sqref="AL57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -2583,12 +2596,12 @@
     <col min="16" max="16" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2602,7 +2615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="P3" t="s">
         <v>68</v>
       </c>
@@ -2613,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2633,7 +2646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="Q5" s="8">
         <v>11</v>
       </c>
@@ -2641,7 +2654,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2665,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2663,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" ht="17.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2671,7 +2684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" ht="17.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2688,7 +2701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" ht="17.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2709,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" ht="17.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2730,7 +2743,7 @@
         <v>-0.76732121118537833</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" ht="17.25">
       <c r="A12" s="3"/>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -2749,7 +2762,7 @@
         <v>-17.725910065602392</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" ht="17.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2773,7 +2786,7 @@
         <v>-16.958588854417012</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2794,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="17.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2815,7 +2828,7 @@
         <v>-17.725910065602392</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2823,12 +2836,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="E19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -2845,7 +2858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2865,7 +2878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2889,12 +2902,12 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="G24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>7</v>
@@ -2903,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
@@ -2920,7 +2933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
@@ -2938,7 +2951,7 @@
         <v>0.22268250000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="G28" t="s">
         <v>47</v>
       </c>
@@ -2947,7 +2960,7 @@
         <v>222.6825</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2958,7 +2971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2969,7 +2982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="B32">
         <v>40.810494300000002</v>
       </c>
@@ -2978,7 +2991,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33">
         <v>40.810547100000001</v>
       </c>
@@ -2993,7 +3006,7 @@
         <v>40.811470014009501</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34">
         <v>40.810635400000002</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>40.8190857586658</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35">
         <v>40.810709500000002</v>
       </c>
@@ -3023,7 +3036,7 @@
         <v>-96.687916042139094</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36">
         <v>40.810821099999998</v>
       </c>
@@ -3038,7 +3051,7 @@
         <v>-96.691201279725405</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37">
         <v>40.810901299999998</v>
       </c>
@@ -3046,7 +3059,7 @@
         <v>-96.689129500000007</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="B38">
         <v>40.810935299999997</v>
       </c>
@@ -3061,7 +3074,7 @@
         <v>3.2852375863114958E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="B39">
         <v>40.8109714</v>
       </c>
@@ -3076,7 +3089,7 @@
         <v>-7.615744656298773E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="B40">
         <v>40.810997800000003</v>
       </c>
@@ -3084,7 +3097,7 @@
         <v>-96.688996000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41">
         <v>40.811018099999998</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="B42">
         <v>40.811034800000002</v>
       </c>
@@ -3103,7 +3116,7 @@
         <v>-96.688892100000004</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="B43">
         <v>40.811051599999999</v>
       </c>
@@ -3114,7 +3127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="B44">
         <v>40.811084000000001</v>
       </c>
@@ -3125,7 +3138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="B45">
         <v>40.811149999999998</v>
       </c>
@@ -3133,7 +3146,7 @@
         <v>-96.688690899999997</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="B46">
         <v>40.811249500000002</v>
       </c>
@@ -3144,7 +3157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="B47">
         <v>40.811295200000004</v>
       </c>
@@ -3152,7 +3165,7 @@
         <v>-96.688648000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="B48">
         <v>40.811365199999997</v>
       </c>
@@ -3163,7 +3176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7">
       <c r="B49">
         <v>40.811436299999997</v>
       </c>
@@ -3171,7 +3184,7 @@
         <v>-96.688574200000005</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7">
       <c r="B50">
         <v>40.811520600000001</v>
       </c>
@@ -3182,7 +3195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7">
       <c r="B51">
         <v>40.811566300000003</v>
       </c>
@@ -3191,7 +3204,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7">
       <c r="B52">
         <v>40.811594700000001</v>
       </c>
@@ -3202,7 +3215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7">
       <c r="B53">
         <v>40.811673900000002</v>
       </c>
@@ -3210,7 +3223,7 @@
         <v>-96.688775199999995</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7">
       <c r="B54">
         <v>40.811719500000002</v>
       </c>
@@ -3218,7 +3231,7 @@
         <v>-96.688779199999999</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7">
       <c r="B55">
         <v>40.811813399999998</v>
       </c>
@@ -3226,7 +3239,7 @@
         <v>-96.688735699999995</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7">
       <c r="B56">
         <v>40.811899199999999</v>
       </c>
@@ -3234,7 +3247,7 @@
         <v>-96.688716200000002</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7">
       <c r="B57">
         <v>40.811943800000002</v>
       </c>
@@ -3242,7 +3255,7 @@
         <v>-96.688692099999997</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7">
       <c r="B58">
         <v>40.811992600000004</v>
       </c>
@@ -3250,7 +3263,7 @@
         <v>-96.688673300000005</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7">
       <c r="B59">
         <v>40.812033200000002</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>-96.688637099999994</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7">
       <c r="B60">
         <v>40.812047399999997</v>
       </c>
@@ -3266,7 +3279,7 @@
         <v>-96.688579399999995</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7">
       <c r="B61">
         <v>40.8120403</v>
       </c>
@@ -3274,7 +3287,7 @@
         <v>-96.688498899999999</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7">
       <c r="B62">
         <v>40.812021000000001</v>
       </c>
@@ -3282,7 +3295,7 @@
         <v>-96.688399700000005</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7">
       <c r="B63">
         <v>40.811991599999999</v>
       </c>
@@ -3290,7 +3303,7 @@
         <v>-96.688331300000002</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7">
       <c r="B64">
         <v>40.811976299999998</v>
       </c>
@@ -3298,7 +3311,7 @@
         <v>-96.688227999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="B65">
         <v>40.811964199999998</v>
       </c>
@@ -3306,7 +3319,7 @@
         <v>-96.688142200000001</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="B66">
         <v>40.811961099999998</v>
       </c>
@@ -3314,7 +3327,7 @@
         <v>-96.688064400000002</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="B67">
         <v>40.811956500000001</v>
       </c>
@@ -3322,7 +3335,7 @@
         <v>-96.688014100000004</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -3330,15 +3343,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
+      <c r="P70" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q70">
+        <v>-1.18586005365013</v>
+      </c>
+      <c r="R70">
+        <f>10.9732045528581-3.75</f>
+        <v>7.2232045528580997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>39</v>
       </c>
       <c r="B71">
         <v>96</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P71" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f>-17.7259100656024-(-8.333)</f>
+        <v>-9.3929100656023987</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -3346,7 +3381,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3363,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -3377,7 +3412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -3397,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -3414,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="Q78" s="8">
         <f>3.75+$Q$73</f>
         <v>3.75</v>
@@ -3424,12 +3459,12 @@
         <v>-8.3330000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>43</v>
       </c>
       <c r="Q79" s="8">
-        <f t="shared" ref="Q77:Q83" si="4">0+$Q$73</f>
+        <f t="shared" ref="Q79:Q80" si="4">0+$Q$73</f>
         <v>0</v>
       </c>
       <c r="R79" s="8">
@@ -3437,7 +3472,7 @@
         <v>-8.3330000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -3450,11 +3485,11 @@
         <v>0</v>
       </c>
       <c r="R80" s="8">
-        <f t="shared" ref="R77:R83" si="5">0+$R$73</f>
+        <f t="shared" ref="R80" si="5">0+$R$73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -3465,11 +3500,20 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
+      <c r="P82" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="8">
+        <f>AVERAGE(Q76:Q79)</f>
+        <v>1.875</v>
+      </c>
+      <c r="R82" s="8">
+        <f>AVERAGE(R76:R79)</f>
+        <v>-4.1665000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCA44A-133E-439C-8FB5-9248599CD748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7E1750-4670-47E1-9578-2A3778024D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
   </bookViews>
@@ -830,6 +830,112 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F47F-48DB-9C16-0196368B487F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$84:$Q$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$84:$R$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.3330000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72D4-4732-B312-5C69F6524F39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$87:$Q$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$87:$R$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-4.1665000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.1665000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72D4-4732-B312-5C69F6524F39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2575,13 +2681,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590E80B-3FF8-468B-9994-B4031C3F2DF3}">
-  <dimension ref="A1:AP83"/>
+  <dimension ref="A1:AP88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="15030" ySplit="5040" topLeftCell="AT63" activePane="bottomLeft"/>
-      <selection activeCell="R12" sqref="R12"/>
-      <selection pane="topRight" activeCell="AL22" sqref="AL22"/>
-      <selection pane="bottomLeft" activeCell="P84" sqref="P84"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="15030" ySplit="5040" topLeftCell="AU63" activePane="bottomLeft"/>
+      <selection activeCell="O11" sqref="O11"/>
+      <selection pane="topRight" activeCell="BO9" sqref="BO9"/>
+      <selection pane="bottomLeft" activeCell="M74" sqref="M74"/>
       <selection pane="bottomRight" activeCell="AL57" sqref="AL57"/>
     </sheetView>
   </sheetViews>
@@ -3517,6 +3623,46 @@
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
+    <row r="84" spans="1:18">
+      <c r="Q84">
+        <f>Q82</f>
+        <v>1.875</v>
+      </c>
+      <c r="R84">
+        <f>R76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="Q85">
+        <f>Q82</f>
+        <v>1.875</v>
+      </c>
+      <c r="R85">
+        <f>R79</f>
+        <v>-8.3330000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="Q87">
+        <f>Q76</f>
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <f>R82</f>
+        <v>-4.1665000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="Q88">
+        <f>Q78</f>
+        <v>3.75</v>
+      </c>
+      <c r="R88">
+        <f>R82</f>
+        <v>-4.1665000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="https://github.com/Frederic-jyrg/ouitoo/blob/main/info/union-plaza-ocad-4000-04-09-2021.png" xr:uid="{F36797D3-B7CD-4738-8373-01049BDD9CE9}"/>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7E1750-4670-47E1-9578-2A3778024D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48BE0C-3763-40E3-B71D-58D183F88E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>point 2</t>
   </si>
@@ -262,13 +262,40 @@
   </si>
   <si>
     <t>center</t>
+  </si>
+  <si>
+    <t>pt1</t>
+  </si>
+  <si>
+    <t>pt2</t>
+  </si>
+  <si>
+    <t>==============================OR ============================</t>
+  </si>
+  <si>
+    <t>variables needed to map the track</t>
+  </si>
+  <si>
+    <t>point1</t>
+  </si>
+  <si>
+    <t>GPS [DEC]</t>
+  </si>
+  <si>
+    <t>point2</t>
+  </si>
+  <si>
+    <t>Y,X [mm]</t>
+  </si>
+  <si>
+    <t>1/COEF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,19 +812,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.75</c:v>
+                  <c:v>5.4190000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.75</c:v>
+                  <c:v>5.4190000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,19 +836,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.46700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.46700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.3330000000000002</c:v>
+                  <c:v>-7.8660000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.3330000000000002</c:v>
+                  <c:v>-7.8660000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.46700000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,10 +883,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.875</c:v>
+                  <c:v>3.5440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.875</c:v>
+                  <c:v>3.5440000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,10 +898,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.46700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.3330000000000002</c:v>
+                  <c:v>-7.8660000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,10 +936,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.75</c:v>
+                  <c:v>5.4190000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,10 +951,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-4.1665000000000001</c:v>
+                  <c:v>-3.6995000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.1665000000000001</c:v>
+                  <c:v>-3.6995000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2681,33 +2708,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590E80B-3FF8-468B-9994-B4031C3F2DF3}">
-  <dimension ref="A1:AP88"/>
+  <dimension ref="A1:AP104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="15030" ySplit="5040" topLeftCell="AU63" activePane="bottomLeft"/>
-      <selection activeCell="O11" sqref="O11"/>
-      <selection pane="topRight" activeCell="BO9" sqref="BO9"/>
-      <selection pane="bottomLeft" activeCell="M74" sqref="M74"/>
-      <selection pane="bottomRight" activeCell="AL57" sqref="AL57"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2721,7 +2744,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="P3" t="s">
         <v>68</v>
       </c>
@@ -2732,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2752,7 +2775,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="Q5" s="8">
         <v>11</v>
       </c>
@@ -2760,7 +2783,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="17.25">
+    <row r="6" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2771,7 +2794,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2782,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="17.25">
+    <row r="8" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,7 +2813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="17.25">
+    <row r="9" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2830,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="17.25">
+    <row r="10" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="17.25">
+    <row r="11" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2849,7 +2872,7 @@
         <v>-0.76732121118537833</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="17.25">
+    <row r="12" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -2868,7 +2891,7 @@
         <v>-17.725910065602392</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="17.25">
+    <row r="13" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2892,7 +2915,7 @@
         <v>-16.958588854417012</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="17.25">
+    <row r="15" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2921,7 +2944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2934,7 +2957,7 @@
         <v>-17.725910065602392</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2942,12 +2965,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -2964,7 +2987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2984,7 +3007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3008,12 +3031,12 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>7</v>
@@ -3022,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
@@ -3039,7 +3062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
@@ -3057,7 +3080,7 @@
         <v>0.22268250000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
         <v>47</v>
       </c>
@@ -3066,7 +3089,7 @@
         <v>222.6825</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3077,7 +3100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -3088,7 +3111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>40.810494300000002</v>
       </c>
@@ -3097,7 +3120,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>40.810547100000001</v>
       </c>
@@ -3112,7 +3135,7 @@
         <v>40.811470014009501</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>40.810635400000002</v>
       </c>
@@ -3127,7 +3150,7 @@
         <v>40.8190857586658</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>40.810709500000002</v>
       </c>
@@ -3142,7 +3165,7 @@
         <v>-96.687916042139094</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>40.810821099999998</v>
       </c>
@@ -3157,7 +3180,7 @@
         <v>-96.691201279725405</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>40.810901299999998</v>
       </c>
@@ -3165,7 +3188,7 @@
         <v>-96.689129500000007</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>40.810935299999997</v>
       </c>
@@ -3180,7 +3203,7 @@
         <v>3.2852375863114958E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>40.8109714</v>
       </c>
@@ -3195,7 +3218,7 @@
         <v>-7.615744656298773E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>40.810997800000003</v>
       </c>
@@ -3203,7 +3226,7 @@
         <v>-96.688996000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>40.811018099999998</v>
       </c>
@@ -3214,7 +3237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>40.811034800000002</v>
       </c>
@@ -3222,7 +3245,7 @@
         <v>-96.688892100000004</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>40.811051599999999</v>
       </c>
@@ -3233,7 +3256,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>40.811084000000001</v>
       </c>
@@ -3244,7 +3267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>40.811149999999998</v>
       </c>
@@ -3252,7 +3275,7 @@
         <v>-96.688690899999997</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>40.811249500000002</v>
       </c>
@@ -3263,7 +3286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>40.811295200000004</v>
       </c>
@@ -3271,7 +3294,7 @@
         <v>-96.688648000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>40.811365199999997</v>
       </c>
@@ -3282,7 +3305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>40.811436299999997</v>
       </c>
@@ -3290,7 +3313,7 @@
         <v>-96.688574200000005</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>40.811520600000001</v>
       </c>
@@ -3301,7 +3324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>40.811566300000003</v>
       </c>
@@ -3310,7 +3333,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>40.811594700000001</v>
       </c>
@@ -3321,7 +3344,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>40.811673900000002</v>
       </c>
@@ -3329,15 +3352,18 @@
         <v>-96.688775199999995</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>40.811719500000002</v>
       </c>
       <c r="C54">
         <v>-96.688779199999999</v>
       </c>
-    </row>
-    <row r="55" spans="2:7">
+      <c r="G54" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>40.811813399999998</v>
       </c>
@@ -3345,15 +3371,18 @@
         <v>-96.688735699999995</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>40.811899199999999</v>
       </c>
       <c r="C56">
         <v>-96.688716200000002</v>
       </c>
-    </row>
-    <row r="57" spans="2:7">
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>40.811943800000002</v>
       </c>
@@ -3361,39 +3390,64 @@
         <v>-96.688692099999997</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>40.811992600000004</v>
       </c>
       <c r="C58">
         <v>-96.688673300000005</v>
       </c>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>40.812033200000002</v>
       </c>
       <c r="C59">
         <v>-96.688637099999994</v>
       </c>
-    </row>
-    <row r="60" spans="2:7">
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>40.812047399999997</v>
       </c>
       <c r="C60">
         <v>-96.688579399999995</v>
       </c>
-    </row>
-    <row r="61" spans="2:7">
+      <c r="G60">
+        <f>B21</f>
+        <v>40.811470014009501</v>
+      </c>
+      <c r="H60">
+        <f>Q101</f>
+        <v>-304.8381</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>40.8120403</v>
       </c>
       <c r="C61">
         <v>-96.688498899999999</v>
       </c>
-    </row>
-    <row r="62" spans="2:7">
+      <c r="G61">
+        <f>B22</f>
+        <v>-96.687916042139094</v>
+      </c>
+      <c r="H61">
+        <f>P101</f>
+        <v>156.59099999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>40.812021000000001</v>
       </c>
@@ -3401,39 +3455,64 @@
         <v>-96.688399700000005</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>40.811991599999999</v>
       </c>
       <c r="C63">
         <v>-96.688331300000002</v>
       </c>
-    </row>
-    <row r="64" spans="2:7">
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>40.811976299999998</v>
       </c>
       <c r="C64">
         <v>-96.688227999999995</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>40.811964199999998</v>
       </c>
       <c r="C65">
         <v>-96.688142200000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="G65">
+        <f>C21</f>
+        <v>40.8190857586658</v>
+      </c>
+      <c r="H65">
+        <f>Q104</f>
+        <v>-93.967300000000009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>40.811961099999998</v>
       </c>
       <c r="C66">
         <v>-96.688064400000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="G66">
+        <f>C22</f>
+        <v>-96.691201279725405</v>
+      </c>
+      <c r="H66">
+        <f>P104</f>
+        <v>90.017600000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>40.811956500000001</v>
       </c>
@@ -3441,15 +3520,31 @@
         <v>-96.688014100000004</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68">
+        <f>(H60-H65)/H39</f>
+        <v>27688.795976844434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="G69" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69">
+        <f>(H61-H66)/H38</f>
+        <v>20264.409574938942</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P70" t="s">
         <v>76</v>
       </c>
@@ -3461,12 +3556,19 @@
         <v>7.2232045528580997</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
       <c r="B71">
         <v>96</v>
+      </c>
+      <c r="G71" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71">
+        <f>H68/H69</f>
+        <v>1.3663756584888245</v>
       </c>
       <c r="P71" t="s">
         <v>77</v>
@@ -3479,15 +3581,22 @@
         <v>-9.3929100656023987</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>40</v>
       </c>
       <c r="B72">
         <v>800</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72">
+        <f>1/H71</f>
+        <v>0.73186315475348385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3498,13 +3607,13 @@
         <v>75</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1.669</v>
       </c>
       <c r="R73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -3518,7 +3627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -3531,14 +3640,14 @@
       </c>
       <c r="Q76" s="8">
         <f>0+$Q$73</f>
-        <v>0</v>
+        <v>1.669</v>
       </c>
       <c r="R76" s="8">
         <f>0+$R$73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -3548,37 +3657,37 @@
       </c>
       <c r="Q77" s="8">
         <f>3.75+$Q$73</f>
-        <v>3.75</v>
+        <v>5.4190000000000005</v>
       </c>
       <c r="R77" s="8">
         <f>0+$R$73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q78" s="8">
         <f>3.75+$Q$73</f>
-        <v>3.75</v>
+        <v>5.4190000000000005</v>
       </c>
       <c r="R78" s="8">
         <f>-8.333+$R$73</f>
-        <v>-8.3330000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>-7.8660000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>43</v>
       </c>
       <c r="Q79" s="8">
         <f t="shared" ref="Q79:Q80" si="4">0+$Q$73</f>
-        <v>0</v>
+        <v>1.669</v>
       </c>
       <c r="R79" s="8">
         <f>-8.333+$R$73</f>
-        <v>-8.3330000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>-7.8660000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -3588,14 +3697,14 @@
       </c>
       <c r="Q80" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.669</v>
       </c>
       <c r="R80" s="8">
         <f t="shared" ref="R80" si="5">0+$R$73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -3606,61 +3715,163 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P82" t="s">
         <v>78</v>
       </c>
       <c r="Q82" s="8">
         <f>AVERAGE(Q76:Q79)</f>
-        <v>1.875</v>
+        <v>3.5440000000000005</v>
       </c>
       <c r="R82" s="8">
         <f>AVERAGE(R76:R79)</f>
-        <v>-4.1665000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>-3.6995000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q84">
         <f>Q82</f>
-        <v>1.875</v>
+        <v>3.5440000000000005</v>
       </c>
       <c r="R84">
         <f>R76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q85">
         <f>Q82</f>
-        <v>1.875</v>
+        <v>3.5440000000000005</v>
       </c>
       <c r="R85">
         <f>R79</f>
-        <v>-8.3330000000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>-7.8660000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q87">
         <f>Q76</f>
-        <v>0</v>
+        <v>1.669</v>
       </c>
       <c r="R87">
         <f>R82</f>
-        <v>-4.1665000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+        <v>-3.6995000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q88">
         <f>Q78</f>
-        <v>3.75</v>
+        <v>5.4190000000000005</v>
       </c>
       <c r="R88">
         <f>R82</f>
-        <v>-4.1665000000000001</v>
+        <v>-3.6995000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>4.29</v>
+      </c>
+      <c r="Q92">
+        <v>-7.835</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>6.1649999999999991</v>
+      </c>
+      <c r="Q93">
+        <v>-12.0015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P95">
+        <v>1.669</v>
+      </c>
+      <c r="Q95">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P96">
+        <v>3.5440000000000005</v>
+      </c>
+      <c r="Q96">
+        <v>-3.6995000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P98" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P99" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <f>P92*25.4</f>
+        <v>108.96599999999999</v>
+      </c>
+      <c r="Q100">
+        <f>Q92*25.4</f>
+        <v>-199.00899999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P101">
+        <f>P93*25.4</f>
+        <v>156.59099999999998</v>
+      </c>
+      <c r="Q101">
+        <f>Q93*25.4</f>
+        <v>-304.8381</v>
+      </c>
+    </row>
+    <row r="102" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P103">
+        <f>P95*25.4</f>
+        <v>42.392600000000002</v>
+      </c>
+      <c r="Q103">
+        <f>Q95*25.4</f>
+        <v>11.861800000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P104">
+        <f>P96*25.4</f>
+        <v>90.017600000000002</v>
+      </c>
+      <c r="Q104">
+        <f>Q96*25.4</f>
+        <v>-93.967300000000009</v>
       </c>
     </row>
   </sheetData>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48BE0C-3763-40E3-B71D-58D183F88E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5188E82-B176-4EC6-8DAB-DB90D9523EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>point 2</t>
   </si>
@@ -282,6 +282,9 @@
     <t>GPS [DEC]</t>
   </si>
   <si>
+    <t>X [mm]</t>
+  </si>
+  <si>
     <t>point2</t>
   </si>
   <si>
@@ -289,6 +292,21 @@
   </si>
   <si>
     <t>1/COEF</t>
+  </si>
+  <si>
+    <t>Latitudes</t>
+  </si>
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>Longitudes</t>
+  </si>
+  <si>
+    <t>Y [mm]</t>
   </si>
 </sst>
 </file>
@@ -2708,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590E80B-3FF8-468B-9994-B4031C3F2DF3}">
-  <dimension ref="A1:AP104"/>
+  <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3412,7 +3430,7 @@
         <v>84</v>
       </c>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -3463,7 +3481,7 @@
         <v>-96.688331300000002</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -3477,7 +3495,7 @@
         <v>84</v>
       </c>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
@@ -3589,7 +3607,7 @@
         <v>800</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H72">
         <f>1/H71</f>
@@ -3613,6 +3631,11 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>42</v>
@@ -3635,6 +3658,13 @@
         <f>B72/$B$71</f>
         <v>8.3333333333333339</v>
       </c>
+      <c r="G76" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76">
+        <f>(H61-H66)/(G61-G66)</f>
+        <v>20264.409574938942</v>
+      </c>
       <c r="P76" t="s">
         <v>74</v>
       </c>
@@ -3654,6 +3684,13 @@
       <c r="B77">
         <f>B73/$B$71</f>
         <v>3.75</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77">
+        <f>H61-G61*H76</f>
+        <v>1959480.1226252159</v>
       </c>
       <c r="Q77" s="8">
         <f>3.75+$Q$73</f>
@@ -3678,6 +3715,9 @@
       <c r="A79" t="s">
         <v>43</v>
       </c>
+      <c r="G79" t="s">
+        <v>89</v>
+      </c>
       <c r="Q79" s="8">
         <f t="shared" ref="Q79:Q80" si="4">0+$Q$73</f>
         <v>1.669</v>
@@ -3712,10 +3752,24 @@
         <f>B73/$B$71*25.4</f>
         <v>95.25</v>
       </c>
+      <c r="G81" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81">
+        <f>(H60-H65)/(G60-G65)</f>
+        <v>27688.795976844434</v>
+      </c>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82">
+        <f>H61-G61*H81</f>
+        <v>2677328.5717170532</v>
+      </c>
       <c r="P82" t="s">
         <v>78</v>
       </c>
@@ -3743,6 +3797,18 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85" t="s">
+        <v>93</v>
+      </c>
+      <c r="K85" t="s">
+        <v>65</v>
+      </c>
+      <c r="L85" t="s">
+        <v>66</v>
+      </c>
       <c r="Q85">
         <f>Q82</f>
         <v>3.5440000000000005</v>
@@ -3752,7 +3818,41 @@
         <v>-7.8660000000000005</v>
       </c>
     </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <f>$H$76*C32+$H$77</f>
+        <v>131.97464917204343</v>
+      </c>
+      <c r="I86">
+        <f>B32*$H$81+$H$82</f>
+        <v>3807322.0221039262</v>
+      </c>
+      <c r="K86">
+        <f>H86/25.4</f>
+        <v>5.1958523296080097</v>
+      </c>
+      <c r="L86">
+        <f>I86/25.4</f>
+        <v>149894.56779936719</v>
+      </c>
+    </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <f t="shared" ref="H87:H131" si="6">$H$76*C33+$H$77</f>
+        <v>131.83887762809172</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ref="I87:I131" si="7">B33*$H$81+$H$82</f>
+        <v>3807323.4840723537</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ref="K87:K122" si="8">H87/25.4</f>
+        <v>5.1905069932319581</v>
+      </c>
+      <c r="L87">
+        <f t="shared" ref="L87:L122" si="9">I87/25.4</f>
+        <v>149894.62535717929</v>
+      </c>
       <c r="Q87">
         <f>Q76</f>
         <v>1.669</v>
@@ -3763,6 +3863,22 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>131.45790672814474</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="7"/>
+        <v>3807325.9289930384</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>5.1755081389033366</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="9"/>
+        <v>149894.72161389916</v>
+      </c>
       <c r="Q88">
         <f>Q78</f>
         <v>5.4190000000000005</v>
@@ -3772,17 +3888,83 @@
         <v>-3.6995000000000005</v>
       </c>
     </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>131.29579145135358</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="7"/>
+        <v>3807327.98073282</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>5.1691256476910858</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="9"/>
+        <v>149894.80239105591</v>
+      </c>
+    </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>131.45790672814474</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="7"/>
+        <v>3807331.0708024511</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="8"/>
+        <v>5.1755081389033366</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="9"/>
+        <v>149894.92404734061</v>
+      </c>
       <c r="P90" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>132.00099290441722</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="7"/>
+        <v>3807333.2914438881</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>5.1968894844258751</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="9"/>
+        <v>149895.01147416883</v>
+      </c>
       <c r="P91" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>132.35562007222325</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="7"/>
+        <v>3807334.2328629517</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="8"/>
+        <v>5.2108511839457972</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="9"/>
+        <v>149895.0485379115</v>
+      </c>
       <c r="P92">
         <v>4.29</v>
       </c>
@@ -3791,6 +3973,22 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>133.30602088128217</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="7"/>
+        <v>3807335.2324284865</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="8"/>
+        <v>5.2482685386331562</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="9"/>
+        <v>149895.0878908853</v>
+      </c>
       <c r="P93">
         <v>6.1649999999999991</v>
       </c>
@@ -3799,11 +3997,43 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>134.70629158290103</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="7"/>
+        <v>3807335.9634127002</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="8"/>
+        <v>5.3033973064134265</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="9"/>
+        <v>149895.11666979134</v>
+      </c>
       <c r="P94" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>135.80664902273566</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="7"/>
+        <v>3807336.5254952586</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>5.3467184654620343</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="9"/>
+        <v>149895.13879902594</v>
+      </c>
       <c r="P95">
         <v>1.669</v>
       </c>
@@ -3812,6 +4042,22 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>136.81176373758353</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="7"/>
+        <v>3807336.9878981514</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="8"/>
+        <v>5.3862899109284861</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="9"/>
+        <v>149895.15700386424</v>
+      </c>
       <c r="P96">
         <v>3.5440000000000005</v>
       </c>
@@ -3819,17 +4065,83 @@
         <v>-3.6995000000000005</v>
       </c>
     </row>
-    <row r="98" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>138.68824806436896</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="7"/>
+        <v>3807337.4530699234</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="8"/>
+        <v>5.4601672466286999</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="9"/>
+        <v>149895.17531771353</v>
+      </c>
+    </row>
+    <row r="98" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>140.07433367939666</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="7"/>
+        <v>3807338.3501869133</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>5.51473754643294</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="9"/>
+        <v>149895.21063728005</v>
+      </c>
       <c r="P98" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>140.88896294427104</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="7"/>
+        <v>3807340.1776474481</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="8"/>
+        <v>5.5468095647350806</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="9"/>
+        <v>149895.2825845452</v>
+      </c>
       <c r="P99" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>140.99839075584896</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="7"/>
+        <v>3807342.9326826474</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="8"/>
+        <v>5.5511177462932668</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="9"/>
+        <v>149895.39105049794</v>
+      </c>
       <c r="P100">
         <f>P92*25.4</f>
         <v>108.96599999999999</v>
@@ -3839,7 +4151,23 @@
         <v>-199.00899999999999</v>
       </c>
     </row>
-    <row r="101" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <f t="shared" si="6"/>
+        <v>141.75830611493438</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="7"/>
+        <v>3807344.1980606238</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="8"/>
+        <v>5.5810356738163147</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="9"/>
+        <v>149895.4408685285</v>
+      </c>
       <c r="P101">
         <f>P93*25.4</f>
         <v>156.59099999999998</v>
@@ -3849,12 +4177,44 @@
         <v>-304.8381</v>
       </c>
     </row>
-    <row r="102" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <f t="shared" si="6"/>
+        <v>143.0633340915665</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="7"/>
+        <v>3807346.136276342</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="8"/>
+        <v>5.6324147280144299</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="9"/>
+        <v>149895.51717623393</v>
+      </c>
       <c r="P102" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <f t="shared" si="6"/>
+        <v>143.25381954154</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="7"/>
+        <v>3807348.104949736</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="8"/>
+        <v>5.6399141551787402</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="9"/>
+        <v>149895.59468306048</v>
+      </c>
       <c r="P103">
         <f>P95*25.4</f>
         <v>42.392600000000002</v>
@@ -3864,7 +4224,23 @@
         <v>11.861800000000001</v>
       </c>
     </row>
-    <row r="104" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <f t="shared" si="6"/>
+        <v>142.55064452928491</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="7"/>
+        <v>3807350.439115237</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="8"/>
+        <v>5.612230099578146</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="9"/>
+        <v>149895.68657934005</v>
+      </c>
       <c r="P104">
         <f>P96*25.4</f>
         <v>90.017600000000002</v>
@@ -3872,6 +4248,312 @@
       <c r="Q104">
         <f>Q96*25.4</f>
         <v>-93.967300000000009</v>
+      </c>
+    </row>
+    <row r="105" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <f t="shared" si="6"/>
+        <v>141.38138809683733</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="7"/>
+        <v>3807351.7044932134</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="8"/>
+        <v>5.5661963817652493</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="9"/>
+        <v>149895.73639737061</v>
+      </c>
+    </row>
+    <row r="106" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <f t="shared" si="6"/>
+        <v>140.34992964961566</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="7"/>
+        <v>3807352.4908550186</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="8"/>
+        <v>5.5255877814809322</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="9"/>
+        <v>149895.7673564968</v>
+      </c>
+    </row>
+    <row r="107" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <f t="shared" si="6"/>
+        <v>139.18067321716808</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="7"/>
+        <v>3807354.6838076604</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="8"/>
+        <v>5.4795540636680347</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="9"/>
+        <v>149895.85369321497</v>
+      </c>
+    </row>
+    <row r="108" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <f t="shared" si="6"/>
+        <v>139.0996155787725</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="7"/>
+        <v>3807355.9464167571</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="8"/>
+        <v>5.4763628180619097</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="9"/>
+        <v>149895.90340223454</v>
+      </c>
+    </row>
+    <row r="109" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <f t="shared" si="6"/>
+        <v>139.98111739521846</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="7"/>
+        <v>3807358.5463946993</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="8"/>
+        <v>5.511067613984979</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="9"/>
+        <v>149896.00576357084</v>
+      </c>
+    </row>
+    <row r="110" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <f t="shared" si="6"/>
+        <v>140.37627338198945</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="7"/>
+        <v>3807360.9220933937</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="8"/>
+        <v>5.5266249362987976</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="9"/>
+        <v>149896.09929501551</v>
+      </c>
+    </row>
+    <row r="111" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <f t="shared" si="6"/>
+        <v>140.8646456527058</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="7"/>
+        <v>3807362.1570136943</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="8"/>
+        <v>5.5458521910514103</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="9"/>
+        <v>149896.14791392497</v>
+      </c>
+    </row>
+    <row r="112" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <f t="shared" si="6"/>
+        <v>141.24561655265279</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="7"/>
+        <v>3807363.5082269381</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="8"/>
+        <v>5.5608510453800317</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="9"/>
+        <v>149896.20111129677</v>
+      </c>
+    </row>
+    <row r="113" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <f t="shared" si="6"/>
+        <v>141.97918817936443</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="7"/>
+        <v>3807364.6323920544</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="8"/>
+        <v>5.5897318180852142</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="9"/>
+        <v>149896.24536976594</v>
+      </c>
+    </row>
+    <row r="114" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <f t="shared" si="6"/>
+        <v>143.14844461181201</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="7"/>
+        <v>3807365.0255729575</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="8"/>
+        <v>5.6357655358981109</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="9"/>
+        <v>149896.26084932903</v>
+      </c>
+    </row>
+    <row r="115" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <f t="shared" si="6"/>
+        <v>144.77972958260216</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="7"/>
+        <v>3807364.8289825059</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="8"/>
+        <v>5.6999893536457549</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="9"/>
+        <v>149896.25310954748</v>
+      </c>
+    </row>
+    <row r="116" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <f t="shared" si="6"/>
+        <v>146.78995901229791</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="7"/>
+        <v>3807364.2945887437</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="8"/>
+        <v>5.7791322445786584</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="9"/>
+        <v>149896.23207042299</v>
+      </c>
+    </row>
+    <row r="117" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <f t="shared" si="6"/>
+        <v>148.17604462732561</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="7"/>
+        <v>3807363.4805381419</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="8"/>
+        <v>5.8337025443828985</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="9"/>
+        <v>149896.2000211867</v>
+      </c>
+    </row>
+    <row r="118" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <f t="shared" si="6"/>
+        <v>150.26935813645832</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="7"/>
+        <v>3807363.0568995634</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="8"/>
+        <v>5.9161164620652889</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="9"/>
+        <v>149896.18334250251</v>
+      </c>
+    </row>
+    <row r="119" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <f t="shared" si="6"/>
+        <v>152.00804447801784</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="7"/>
+        <v>3807362.7218651325</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="8"/>
+        <v>5.9845686802369231</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="9"/>
+        <v>149896.17015217058</v>
+      </c>
+    </row>
+    <row r="120" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <f t="shared" si="6"/>
+        <v>153.5846155427862</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="7"/>
+        <v>3807362.6360298647</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="8"/>
+        <v>6.0466384071963075</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="9"/>
+        <v>149896.16677282934</v>
+      </c>
+    </row>
+    <row r="121" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <f t="shared" si="6"/>
+        <v>154.60391534445807</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="7"/>
+        <v>3807362.5086614033</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="8"/>
+        <v>6.0867683206479564</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="9"/>
+        <v>149896.16175832297</v>
       </c>
     </row>
   </sheetData>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5188E82-B176-4EC6-8DAB-DB90D9523EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B469E-4B27-4FEE-B089-CF2AE92CD219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
   </bookViews>
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,7 +814,10 @@
           <c:spPr>
             <a:ln w="69850" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -830,19 +833,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.669</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4190000000000005</c:v>
+                  <c:v>7.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4190000000000005</c:v>
+                  <c:v>7.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.669</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.669</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,19 +857,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.46700000000000003</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46700000000000003</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.8660000000000005</c:v>
+                  <c:v>-17.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.8660000000000005</c:v>
+                  <c:v>-17.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46700000000000003</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,10 +904,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.5440000000000005</c:v>
+                  <c:v>5.1749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5440000000000005</c:v>
+                  <c:v>5.1749999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,10 +919,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.46700000000000003</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.8660000000000005</c:v>
+                  <c:v>-17.332999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,10 +957,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.669</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4190000000000005</c:v>
+                  <c:v>7.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,10 +972,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-3.6995000000000005</c:v>
+                  <c:v>-13.166499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.6995000000000005</c:v>
+                  <c:v>-13.166499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,6 +984,274 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-72D4-4732-B312-5C69F6524F39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$86:$K$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>5.1958523296080097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1905069932319581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1755081389033366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1691256476910858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1755081389033366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1968894844258751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2108511839457972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2482685386331562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3033973064134265</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3467184654620343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3862899109284861</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4601672466286999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.51473754643294</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5468095647350806</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5511177462932668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5810356738163147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6324147280144299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6399141551787402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.612230099578146</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5661963817652493</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5255877814809322</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4795540636680347</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4763628180619097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.511067613984979</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5266249362987976</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5458521910514103</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5608510453800317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5897318180852142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6357655358981109</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6999893536457549</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.7791322445786584</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8337025443828985</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9161164620652889</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9845686802369231</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0466384071963075</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0867683206479564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$86:$L$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-13.065135674835293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.00757786272805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.911321142849726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12.8305439860835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12.708887701403116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.621460873166129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.584397130513814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.545044156704392</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12.51626525065077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12.494136016067911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-12.475931177770089</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.457617328467405</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.422297761938719</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-12.350350496804666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.241884544060941</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.192066513500581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-12.115758808062038</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-12.03825198152418</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-11.94635570195951</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11.89653767139915</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11.865578545193284</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.779241827023252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-11.729532807476922</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-11.627171471170481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-11.53364002649621</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-11.485021117026001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-11.431823745223246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-11.387565276066693</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-11.372085712963759</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-11.379825494510643</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11.400864619017382</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11.432913855308536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11.449592539492453</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-11.462782871438279</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11.466162212680674</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-11.471176719032668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72D4-4732-B312-5C69F6524F39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2728,11 +2999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590E80B-3FF8-468B-9994-B4031C3F2DF3}">
   <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -2743,12 +3014,12 @@
     <col min="16" max="16" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2762,7 +3033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="P3" t="s">
         <v>68</v>
       </c>
@@ -2773,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2793,7 +3064,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="Q5" s="8">
         <v>11</v>
       </c>
@@ -2801,7 +3072,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2812,7 +3083,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2823,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" ht="17.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2831,7 +3102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" ht="17.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2848,7 +3119,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" ht="17.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" ht="17.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +3161,7 @@
         <v>-0.76732121118537833</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" ht="17.25">
       <c r="A12" s="3"/>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -2909,7 +3180,7 @@
         <v>-17.725910065602392</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" ht="17.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2933,7 +3204,7 @@
         <v>-16.958588854417012</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2954,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="17.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +3233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2975,7 +3246,7 @@
         <v>-17.725910065602392</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2983,12 +3254,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="E19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3025,7 +3296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3049,12 +3320,12 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="G24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>7</v>
@@ -3063,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
@@ -3080,7 +3351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
@@ -3098,7 +3369,7 @@
         <v>0.22268250000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="G28" t="s">
         <v>47</v>
       </c>
@@ -3107,7 +3378,7 @@
         <v>222.6825</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3118,7 +3389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -3129,7 +3400,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="B32">
         <v>40.810494300000002</v>
       </c>
@@ -3138,7 +3409,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33">
         <v>40.810547100000001</v>
       </c>
@@ -3153,7 +3424,7 @@
         <v>40.811470014009501</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34">
         <v>40.810635400000002</v>
       </c>
@@ -3168,7 +3439,7 @@
         <v>40.8190857586658</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35">
         <v>40.810709500000002</v>
       </c>
@@ -3183,7 +3454,7 @@
         <v>-96.687916042139094</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36">
         <v>40.810821099999998</v>
       </c>
@@ -3198,7 +3469,7 @@
         <v>-96.691201279725405</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37">
         <v>40.810901299999998</v>
       </c>
@@ -3206,7 +3477,7 @@
         <v>-96.689129500000007</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="B38">
         <v>40.810935299999997</v>
       </c>
@@ -3221,7 +3492,7 @@
         <v>3.2852375863114958E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="B39">
         <v>40.8109714</v>
       </c>
@@ -3236,7 +3507,7 @@
         <v>-7.615744656298773E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="B40">
         <v>40.810997800000003</v>
       </c>
@@ -3244,7 +3515,7 @@
         <v>-96.688996000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41">
         <v>40.811018099999998</v>
       </c>
@@ -3255,7 +3526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="B42">
         <v>40.811034800000002</v>
       </c>
@@ -3263,7 +3534,7 @@
         <v>-96.688892100000004</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="B43">
         <v>40.811051599999999</v>
       </c>
@@ -3274,7 +3545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="B44">
         <v>40.811084000000001</v>
       </c>
@@ -3285,7 +3556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="B45">
         <v>40.811149999999998</v>
       </c>
@@ -3293,7 +3564,7 @@
         <v>-96.688690899999997</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="B46">
         <v>40.811249500000002</v>
       </c>
@@ -3304,7 +3575,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="B47">
         <v>40.811295200000004</v>
       </c>
@@ -3312,7 +3583,7 @@
         <v>-96.688648000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="B48">
         <v>40.811365199999997</v>
       </c>
@@ -3323,7 +3594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8">
       <c r="B49">
         <v>40.811436299999997</v>
       </c>
@@ -3331,7 +3602,7 @@
         <v>-96.688574200000005</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8">
       <c r="B50">
         <v>40.811520600000001</v>
       </c>
@@ -3342,7 +3613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8">
       <c r="B51">
         <v>40.811566300000003</v>
       </c>
@@ -3351,7 +3622,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8">
       <c r="B52">
         <v>40.811594700000001</v>
       </c>
@@ -3362,7 +3633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8">
       <c r="B53">
         <v>40.811673900000002</v>
       </c>
@@ -3370,7 +3641,7 @@
         <v>-96.688775199999995</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8">
       <c r="B54">
         <v>40.811719500000002</v>
       </c>
@@ -3381,7 +3652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8">
       <c r="B55">
         <v>40.811813399999998</v>
       </c>
@@ -3389,7 +3660,7 @@
         <v>-96.688735699999995</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8">
       <c r="B56">
         <v>40.811899199999999</v>
       </c>
@@ -3400,7 +3671,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8">
       <c r="B57">
         <v>40.811943800000002</v>
       </c>
@@ -3408,7 +3679,7 @@
         <v>-96.688692099999997</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8">
       <c r="B58">
         <v>40.811992600000004</v>
       </c>
@@ -3419,7 +3690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8">
       <c r="B59">
         <v>40.812033200000002</v>
       </c>
@@ -3433,7 +3704,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8">
       <c r="B60">
         <v>40.812047399999997</v>
       </c>
@@ -3449,7 +3720,7 @@
         <v>-304.8381</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8">
       <c r="B61">
         <v>40.8120403</v>
       </c>
@@ -3465,7 +3736,7 @@
         <v>156.59099999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8">
       <c r="B62">
         <v>40.812021000000001</v>
       </c>
@@ -3473,7 +3744,7 @@
         <v>-96.688399700000005</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8">
       <c r="B63">
         <v>40.811991599999999</v>
       </c>
@@ -3484,7 +3755,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8">
       <c r="B64">
         <v>40.811976299999998</v>
       </c>
@@ -3498,7 +3769,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="B65">
         <v>40.811964199999998</v>
       </c>
@@ -3514,7 +3785,7 @@
         <v>-93.967300000000009</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="B66">
         <v>40.811961099999998</v>
       </c>
@@ -3530,7 +3801,7 @@
         <v>90.017600000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="B67">
         <v>40.811956500000001</v>
       </c>
@@ -3538,7 +3809,7 @@
         <v>-96.688014100000004</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="G68" t="s">
         <v>62</v>
       </c>
@@ -3547,7 +3818,7 @@
         <v>27688.795976844434</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -3562,7 +3833,7 @@
         <v>20264.409574938942</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="P70" t="s">
         <v>76</v>
       </c>
@@ -3574,7 +3845,7 @@
         <v>7.2232045528580997</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -3599,7 +3870,7 @@
         <v>-9.3929100656023987</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -3614,7 +3885,7 @@
         <v>0.73186315475348385</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3625,18 +3896,18 @@
         <v>75</v>
       </c>
       <c r="Q73">
-        <v>1.669</v>
+        <v>3.3</v>
       </c>
       <c r="R73">
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="G74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -3650,7 +3921,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -3670,14 +3941,14 @@
       </c>
       <c r="Q76" s="8">
         <f>0+$Q$73</f>
-        <v>1.669</v>
+        <v>3.3</v>
       </c>
       <c r="R76" s="8">
         <f>0+$R$73</f>
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -3694,24 +3965,24 @@
       </c>
       <c r="Q77" s="8">
         <f>3.75+$Q$73</f>
-        <v>5.4190000000000005</v>
+        <v>7.05</v>
       </c>
       <c r="R77" s="8">
         <f>0+$R$73</f>
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="Q78" s="8">
         <f>3.75+$Q$73</f>
-        <v>5.4190000000000005</v>
+        <v>7.05</v>
       </c>
       <c r="R78" s="8">
         <f>-8.333+$R$73</f>
-        <v>-7.8660000000000005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-17.332999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -3720,14 +3991,14 @@
       </c>
       <c r="Q79" s="8">
         <f t="shared" ref="Q79:Q80" si="4">0+$Q$73</f>
-        <v>1.669</v>
+        <v>3.3</v>
       </c>
       <c r="R79" s="8">
         <f>-8.333+$R$73</f>
-        <v>-7.8660000000000005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-17.332999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -3737,14 +4008,14 @@
       </c>
       <c r="Q80" s="8">
         <f t="shared" si="4"/>
-        <v>1.669</v>
+        <v>3.3</v>
       </c>
       <c r="R80" s="8">
         <f t="shared" ref="R80" si="5">0+$R$73</f>
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -3762,41 +4033,41 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="G82" t="s">
         <v>91</v>
       </c>
       <c r="H82">
-        <f>H61-G61*H81</f>
-        <v>2677328.5717170532</v>
+        <f>H60-G60*H81</f>
+        <v>-1130325.3048330136</v>
       </c>
       <c r="P82" t="s">
         <v>78</v>
       </c>
       <c r="Q82" s="8">
         <f>AVERAGE(Q76:Q79)</f>
-        <v>3.5440000000000005</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="R82" s="8">
         <f>AVERAGE(R76:R79)</f>
-        <v>-3.6995000000000005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-13.166499999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="Q84">
         <f>Q82</f>
-        <v>3.5440000000000005</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="R84">
         <f>R76</f>
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="H85" t="s">
         <v>85</v>
       </c>
@@ -3811,21 +4082,21 @@
       </c>
       <c r="Q85">
         <f>Q82</f>
-        <v>3.5440000000000005</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="R85">
         <f>R79</f>
-        <v>-7.8660000000000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-17.332999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="H86">
         <f>$H$76*C32+$H$77</f>
         <v>131.97464917204343</v>
       </c>
       <c r="I86">
         <f>B32*$H$81+$H$82</f>
-        <v>3807322.0221039262</v>
+        <v>-331.85444614081644</v>
       </c>
       <c r="K86">
         <f>H86/25.4</f>
@@ -3833,17 +4104,17 @@
       </c>
       <c r="L86">
         <f>I86/25.4</f>
-        <v>149894.56779936719</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-13.065135674835293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="H87">
         <f t="shared" ref="H87:H131" si="6">$H$76*C33+$H$77</f>
         <v>131.83887762809172</v>
       </c>
       <c r="I87">
         <f t="shared" ref="I87:I131" si="7">B33*$H$81+$H$82</f>
-        <v>3807323.4840723537</v>
+        <v>-330.39247771329246</v>
       </c>
       <c r="K87">
         <f t="shared" ref="K87:K122" si="8">H87/25.4</f>
@@ -3851,25 +4122,25 @@
       </c>
       <c r="L87">
         <f t="shared" ref="L87:L122" si="9">I87/25.4</f>
-        <v>149894.62535717929</v>
+        <v>-13.00757786272805</v>
       </c>
       <c r="Q87">
         <f>Q76</f>
-        <v>1.669</v>
+        <v>3.3</v>
       </c>
       <c r="R87">
         <f>R82</f>
-        <v>-3.6995000000000005</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-13.166499999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="H88">
         <f t="shared" si="6"/>
         <v>131.45790672814474</v>
       </c>
       <c r="I88">
         <f t="shared" si="7"/>
-        <v>3807325.9289930384</v>
+        <v>-327.94755702838302</v>
       </c>
       <c r="K88">
         <f t="shared" si="8"/>
@@ -3877,25 +4148,25 @@
       </c>
       <c r="L88">
         <f t="shared" si="9"/>
-        <v>149894.72161389916</v>
+        <v>-12.911321142849726</v>
       </c>
       <c r="Q88">
         <f>Q78</f>
-        <v>5.4190000000000005</v>
+        <v>7.05</v>
       </c>
       <c r="R88">
         <f>R82</f>
-        <v>-3.6995000000000005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-13.166499999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="H89">
         <f t="shared" si="6"/>
         <v>131.29579145135358</v>
       </c>
       <c r="I89">
         <f t="shared" si="7"/>
-        <v>3807327.98073282</v>
+        <v>-325.89581724652089</v>
       </c>
       <c r="K89">
         <f t="shared" si="8"/>
@@ -3903,17 +4174,17 @@
       </c>
       <c r="L89">
         <f t="shared" si="9"/>
-        <v>149894.80239105591</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-12.8305439860835</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="H90">
         <f t="shared" si="6"/>
         <v>131.45790672814474</v>
       </c>
       <c r="I90">
         <f t="shared" si="7"/>
-        <v>3807331.0708024511</v>
+        <v>-322.80574761563912</v>
       </c>
       <c r="K90">
         <f t="shared" si="8"/>
@@ -3921,20 +4192,20 @@
       </c>
       <c r="L90">
         <f t="shared" si="9"/>
-        <v>149894.92404734061</v>
+        <v>-12.708887701403116</v>
       </c>
       <c r="P90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="H91">
         <f t="shared" si="6"/>
         <v>132.00099290441722</v>
       </c>
       <c r="I91">
         <f t="shared" si="7"/>
-        <v>3807333.2914438881</v>
+        <v>-320.58510617841966</v>
       </c>
       <c r="K91">
         <f t="shared" si="8"/>
@@ -3942,20 +4213,20 @@
       </c>
       <c r="L91">
         <f t="shared" si="9"/>
-        <v>149895.01147416883</v>
+        <v>-12.621460873166129</v>
       </c>
       <c r="P91" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="H92">
         <f t="shared" si="6"/>
         <v>132.35562007222325</v>
       </c>
       <c r="I92">
         <f t="shared" si="7"/>
-        <v>3807334.2328629517</v>
+        <v>-319.64368711505085</v>
       </c>
       <c r="K92">
         <f t="shared" si="8"/>
@@ -3963,7 +4234,7 @@
       </c>
       <c r="L92">
         <f t="shared" si="9"/>
-        <v>149895.0485379115</v>
+        <v>-12.584397130513814</v>
       </c>
       <c r="P92">
         <v>4.29</v>
@@ -3972,14 +4243,14 @@
         <v>-7.835</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="H93">
         <f t="shared" si="6"/>
         <v>133.30602088128217</v>
       </c>
       <c r="I93">
         <f t="shared" si="7"/>
-        <v>3807335.2324284865</v>
+        <v>-318.64412158029154</v>
       </c>
       <c r="K93">
         <f t="shared" si="8"/>
@@ -3987,7 +4258,7 @@
       </c>
       <c r="L93">
         <f t="shared" si="9"/>
-        <v>149895.0878908853</v>
+        <v>-12.545044156704392</v>
       </c>
       <c r="P93">
         <v>6.1649999999999991</v>
@@ -3996,14 +4267,14 @@
         <v>-12.0015</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="H94">
         <f t="shared" si="6"/>
         <v>134.70629158290103</v>
       </c>
       <c r="I94">
         <f t="shared" si="7"/>
-        <v>3807335.9634127002</v>
+        <v>-317.91313736652955</v>
       </c>
       <c r="K94">
         <f t="shared" si="8"/>
@@ -4011,20 +4282,20 @@
       </c>
       <c r="L94">
         <f t="shared" si="9"/>
-        <v>149895.11666979134</v>
+        <v>-12.51626525065077</v>
       </c>
       <c r="P94" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="H95">
         <f t="shared" si="6"/>
         <v>135.80664902273566</v>
       </c>
       <c r="I95">
         <f t="shared" si="7"/>
-        <v>3807336.5254952586</v>
+        <v>-317.3510548081249</v>
       </c>
       <c r="K95">
         <f t="shared" si="8"/>
@@ -4032,7 +4303,7 @@
       </c>
       <c r="L95">
         <f t="shared" si="9"/>
-        <v>149895.13879902594</v>
+        <v>-12.494136016067911</v>
       </c>
       <c r="P95">
         <v>1.669</v>
@@ -4041,14 +4312,14 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="H96">
         <f t="shared" si="6"/>
         <v>136.81176373758353</v>
       </c>
       <c r="I96">
         <f t="shared" si="7"/>
-        <v>3807336.9878981514</v>
+        <v>-316.88865191536024</v>
       </c>
       <c r="K96">
         <f t="shared" si="8"/>
@@ -4056,7 +4327,7 @@
       </c>
       <c r="L96">
         <f t="shared" si="9"/>
-        <v>149895.15700386424</v>
+        <v>-12.475931177770089</v>
       </c>
       <c r="P96">
         <v>3.5440000000000005</v>
@@ -4065,14 +4336,14 @@
         <v>-3.6995000000000005</v>
       </c>
     </row>
-    <row r="97" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:17">
       <c r="H97">
         <f t="shared" si="6"/>
         <v>138.68824806436896</v>
       </c>
       <c r="I97">
         <f t="shared" si="7"/>
-        <v>3807337.4530699234</v>
+        <v>-316.42348014307208</v>
       </c>
       <c r="K97">
         <f t="shared" si="8"/>
@@ -4080,17 +4351,17 @@
       </c>
       <c r="L97">
         <f t="shared" si="9"/>
-        <v>149895.17531771353</v>
-      </c>
-    </row>
-    <row r="98" spans="8:17" x14ac:dyDescent="0.2">
+        <v>-12.457617328467405</v>
+      </c>
+    </row>
+    <row r="98" spans="8:17">
       <c r="H98">
         <f t="shared" si="6"/>
         <v>140.07433367939666</v>
       </c>
       <c r="I98">
         <f t="shared" si="7"/>
-        <v>3807338.3501869133</v>
+        <v>-315.52636315324344</v>
       </c>
       <c r="K98">
         <f t="shared" si="8"/>
@@ -4098,20 +4369,20 @@
       </c>
       <c r="L98">
         <f t="shared" si="9"/>
-        <v>149895.21063728005</v>
+        <v>-12.422297761938719</v>
       </c>
       <c r="P98" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:17">
       <c r="H99">
         <f t="shared" si="6"/>
         <v>140.88896294427104</v>
       </c>
       <c r="I99">
         <f t="shared" si="7"/>
-        <v>3807340.1776474481</v>
+        <v>-313.69890261883847</v>
       </c>
       <c r="K99">
         <f t="shared" si="8"/>
@@ -4119,20 +4390,20 @@
       </c>
       <c r="L99">
         <f t="shared" si="9"/>
-        <v>149895.2825845452</v>
+        <v>-12.350350496804666</v>
       </c>
       <c r="P99" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:17">
       <c r="H100">
         <f t="shared" si="6"/>
         <v>140.99839075584896</v>
       </c>
       <c r="I100">
         <f t="shared" si="7"/>
-        <v>3807342.9326826474</v>
+        <v>-310.94386741914786</v>
       </c>
       <c r="K100">
         <f t="shared" si="8"/>
@@ -4140,7 +4411,7 @@
       </c>
       <c r="L100">
         <f t="shared" si="9"/>
-        <v>149895.39105049794</v>
+        <v>-12.241884544060941</v>
       </c>
       <c r="P100">
         <f>P92*25.4</f>
@@ -4151,14 +4422,14 @@
         <v>-199.00899999999999</v>
       </c>
     </row>
-    <row r="101" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:17">
       <c r="H101">
         <f t="shared" si="6"/>
         <v>141.75830611493438</v>
       </c>
       <c r="I101">
         <f t="shared" si="7"/>
-        <v>3807344.1980606238</v>
+        <v>-309.67848944291472</v>
       </c>
       <c r="K101">
         <f t="shared" si="8"/>
@@ -4166,7 +4437,7 @@
       </c>
       <c r="L101">
         <f t="shared" si="9"/>
-        <v>149895.4408685285</v>
+        <v>-12.192066513500581</v>
       </c>
       <c r="P101">
         <f>P93*25.4</f>
@@ -4177,14 +4448,14 @@
         <v>-304.8381</v>
       </c>
     </row>
-    <row r="102" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:17">
       <c r="H102">
         <f t="shared" si="6"/>
         <v>143.0633340915665</v>
       </c>
       <c r="I102">
         <f t="shared" si="7"/>
-        <v>3807346.136276342</v>
+        <v>-307.74027372477576</v>
       </c>
       <c r="K102">
         <f t="shared" si="8"/>
@@ -4192,20 +4463,20 @@
       </c>
       <c r="L102">
         <f t="shared" si="9"/>
-        <v>149895.51717623393</v>
+        <v>-12.115758808062038</v>
       </c>
       <c r="P102" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:17">
       <c r="H103">
         <f t="shared" si="6"/>
         <v>143.25381954154</v>
       </c>
       <c r="I103">
         <f t="shared" si="7"/>
-        <v>3807348.104949736</v>
+        <v>-305.77160033071414</v>
       </c>
       <c r="K103">
         <f t="shared" si="8"/>
@@ -4213,7 +4484,7 @@
       </c>
       <c r="L103">
         <f t="shared" si="9"/>
-        <v>149895.59468306048</v>
+        <v>-12.03825198152418</v>
       </c>
       <c r="P103">
         <f>P95*25.4</f>
@@ -4224,14 +4495,14 @@
         <v>11.861800000000001</v>
       </c>
     </row>
-    <row r="104" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:17">
       <c r="H104">
         <f t="shared" si="6"/>
         <v>142.55064452928491</v>
       </c>
       <c r="I104">
         <f t="shared" si="7"/>
-        <v>3807350.439115237</v>
+        <v>-303.43743482977152</v>
       </c>
       <c r="K104">
         <f t="shared" si="8"/>
@@ -4239,7 +4510,7 @@
       </c>
       <c r="L104">
         <f t="shared" si="9"/>
-        <v>149895.68657934005</v>
+        <v>-11.94635570195951</v>
       </c>
       <c r="P104">
         <f>P96*25.4</f>
@@ -4250,14 +4521,14 @@
         <v>-93.967300000000009</v>
       </c>
     </row>
-    <row r="105" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:17">
       <c r="H105">
         <f t="shared" si="6"/>
         <v>141.38138809683733</v>
       </c>
       <c r="I105">
         <f t="shared" si="7"/>
-        <v>3807351.7044932134</v>
+        <v>-302.17205685353838</v>
       </c>
       <c r="K105">
         <f t="shared" si="8"/>
@@ -4265,17 +4536,17 @@
       </c>
       <c r="L105">
         <f t="shared" si="9"/>
-        <v>149895.73639737061</v>
-      </c>
-    </row>
-    <row r="106" spans="8:17" x14ac:dyDescent="0.2">
+        <v>-11.89653767139915</v>
+      </c>
+    </row>
+    <row r="106" spans="8:17">
       <c r="H106">
         <f t="shared" si="6"/>
         <v>140.34992964961566</v>
       </c>
       <c r="I106">
         <f t="shared" si="7"/>
-        <v>3807352.4908550186</v>
+        <v>-301.38569504790939</v>
       </c>
       <c r="K106">
         <f t="shared" si="8"/>
@@ -4283,17 +4554,17 @@
       </c>
       <c r="L106">
         <f t="shared" si="9"/>
-        <v>149895.7673564968</v>
-      </c>
-    </row>
-    <row r="107" spans="8:17" x14ac:dyDescent="0.2">
+        <v>-11.865578545193284</v>
+      </c>
+    </row>
+    <row r="107" spans="8:17">
       <c r="H107">
         <f t="shared" si="6"/>
         <v>139.18067321716808</v>
       </c>
       <c r="I107">
         <f t="shared" si="7"/>
-        <v>3807354.6838076604</v>
+        <v>-299.19274240639061</v>
       </c>
       <c r="K107">
         <f t="shared" si="8"/>
@@ -4301,17 +4572,17 @@
       </c>
       <c r="L107">
         <f t="shared" si="9"/>
-        <v>149895.85369321497</v>
-      </c>
-    </row>
-    <row r="108" spans="8:17" x14ac:dyDescent="0.2">
+        <v>-11.779241827023252</v>
+      </c>
+    </row>
+    <row r="108" spans="8:17">
       <c r="H108">
         <f t="shared" si="6"/>
         <v>139.0996155787725</v>
       </c>
       <c r="I108">
         <f t="shared" si="7"/>
-        <v>3807355.9464167571</v>
+        <v>-297.9301333099138</v>
       </c>
       <c r="K108">
         <f t="shared" si="8"/>
@@ -4319,17 +4590,17 @@
       </c>
       <c r="L108">
         <f t="shared" si="9"/>
-        <v>149895.90340223454</v>
-      </c>
-    </row>
-    <row r="109" spans="8:17" x14ac:dyDescent="0.2">
+        <v>-11.729532807476922</v>
+      </c>
+    </row>
+    <row r="109" spans="8:17">
       <c r="H109">
         <f t="shared" si="6"/>
         <v>139.98111739521846</v>
       </c>
       <c r="I109">
         <f t="shared" si="7"/>
-        <v>3807358.5463946993</v>
+        <v>-295.33015536773019</v>
       </c>
       <c r="K109">
         <f t="shared" si="8"/>
@@ -4337,17 +4608,17 @@
       </c>
       <c r="L109">
         <f t="shared" si="9"/>
-        <v>149896.00576357084</v>
-      </c>
-    </row>
-    <row r="110" spans="8:17" x14ac:dyDescent="0.2">
+        <v>-11.627171471170481</v>
+      </c>
+    </row>
+    <row r="110" spans="8:17">
       <c r="H110">
         <f t="shared" si="6"/>
         <v>140.37627338198945</v>
       </c>
       <c r="I110">
         <f t="shared" si="7"/>
-        <v>3807360.9220933937</v>
+        <v>-292.95445667300373</v>
       </c>
       <c r="K110">
         <f t="shared" si="8"/>
@@ -4355,17 +4626,17 @@
       </c>
       <c r="L110">
         <f t="shared" si="9"/>
-        <v>149896.09929501551</v>
-      </c>
-    </row>
-    <row r="111" spans="8:17" x14ac:dyDescent="0.2">
+        <v>-11.53364002649621</v>
+      </c>
+    </row>
+    <row r="111" spans="8:17">
       <c r="H111">
         <f t="shared" si="6"/>
         <v>140.8646456527058</v>
       </c>
       <c r="I111">
         <f t="shared" si="7"/>
-        <v>3807362.1570136943</v>
+        <v>-291.71953637246042</v>
       </c>
       <c r="K111">
         <f t="shared" si="8"/>
@@ -4373,17 +4644,17 @@
       </c>
       <c r="L111">
         <f t="shared" si="9"/>
-        <v>149896.14791392497</v>
-      </c>
-    </row>
-    <row r="112" spans="8:17" x14ac:dyDescent="0.2">
+        <v>-11.485021117026001</v>
+      </c>
+    </row>
+    <row r="112" spans="8:17">
       <c r="H112">
         <f t="shared" si="6"/>
         <v>141.24561655265279</v>
       </c>
       <c r="I112">
         <f t="shared" si="7"/>
-        <v>3807363.5082269381</v>
+        <v>-290.36832312867045</v>
       </c>
       <c r="K112">
         <f t="shared" si="8"/>
@@ -4391,17 +4662,17 @@
       </c>
       <c r="L112">
         <f t="shared" si="9"/>
-        <v>149896.20111129677</v>
-      </c>
-    </row>
-    <row r="113" spans="8:12" x14ac:dyDescent="0.2">
+        <v>-11.431823745223246</v>
+      </c>
+    </row>
+    <row r="113" spans="8:12">
       <c r="H113">
         <f t="shared" si="6"/>
         <v>141.97918817936443</v>
       </c>
       <c r="I113">
         <f t="shared" si="7"/>
-        <v>3807364.6323920544</v>
+        <v>-289.24415801209398</v>
       </c>
       <c r="K113">
         <f t="shared" si="8"/>
@@ -4409,17 +4680,17 @@
       </c>
       <c r="L113">
         <f t="shared" si="9"/>
-        <v>149896.24536976594</v>
-      </c>
-    </row>
-    <row r="114" spans="8:12" x14ac:dyDescent="0.2">
+        <v>-11.387565276066693</v>
+      </c>
+    </row>
+    <row r="114" spans="8:12">
       <c r="H114">
         <f t="shared" si="6"/>
         <v>143.14844461181201</v>
       </c>
       <c r="I114">
         <f t="shared" si="7"/>
-        <v>3807365.0255729575</v>
+        <v>-288.85097710927948</v>
       </c>
       <c r="K114">
         <f t="shared" si="8"/>
@@ -4427,17 +4698,17 @@
       </c>
       <c r="L114">
         <f t="shared" si="9"/>
-        <v>149896.26084932903</v>
-      </c>
-    </row>
-    <row r="115" spans="8:12" x14ac:dyDescent="0.2">
+        <v>-11.372085712963759</v>
+      </c>
+    </row>
+    <row r="115" spans="8:12">
       <c r="H115">
         <f t="shared" si="6"/>
         <v>144.77972958260216</v>
       </c>
       <c r="I115">
         <f t="shared" si="7"/>
-        <v>3807364.8289825059</v>
+        <v>-289.04756756057031</v>
       </c>
       <c r="K115">
         <f t="shared" si="8"/>
@@ -4445,17 +4716,17 @@
       </c>
       <c r="L115">
         <f t="shared" si="9"/>
-        <v>149896.25310954748</v>
-      </c>
-    </row>
-    <row r="116" spans="8:12" x14ac:dyDescent="0.2">
+        <v>-11.379825494510643</v>
+      </c>
+    </row>
+    <row r="116" spans="8:12">
       <c r="H116">
         <f t="shared" si="6"/>
         <v>146.78995901229791</v>
       </c>
       <c r="I116">
         <f t="shared" si="7"/>
-        <v>3807364.2945887437</v>
+        <v>-289.58196132304147</v>
       </c>
       <c r="K116">
         <f t="shared" si="8"/>
@@ -4463,17 +4734,17 @@
       </c>
       <c r="L116">
         <f t="shared" si="9"/>
-        <v>149896.23207042299</v>
-      </c>
-    </row>
-    <row r="117" spans="8:12" x14ac:dyDescent="0.2">
+        <v>-11.400864619017382</v>
+      </c>
+    </row>
+    <row r="117" spans="8:12">
       <c r="H117">
         <f t="shared" si="6"/>
         <v>148.17604462732561</v>
       </c>
       <c r="I117">
         <f t="shared" si="7"/>
-        <v>3807363.4805381419</v>
+        <v>-290.39601192483678</v>
       </c>
       <c r="K117">
         <f t="shared" si="8"/>
@@ -4481,17 +4752,17 @@
       </c>
       <c r="L117">
         <f t="shared" si="9"/>
-        <v>149896.2000211867</v>
-      </c>
-    </row>
-    <row r="118" spans="8:12" x14ac:dyDescent="0.2">
+        <v>-11.432913855308536</v>
+      </c>
+    </row>
+    <row r="118" spans="8:12">
       <c r="H118">
         <f t="shared" si="6"/>
         <v>150.26935813645832</v>
       </c>
       <c r="I118">
         <f t="shared" si="7"/>
-        <v>3807363.0568995634</v>
+        <v>-290.81965050310828</v>
       </c>
       <c r="K118">
         <f t="shared" si="8"/>
@@ -4499,17 +4770,17 @@
       </c>
       <c r="L118">
         <f t="shared" si="9"/>
-        <v>149896.18334250251</v>
-      </c>
-    </row>
-    <row r="119" spans="8:12" x14ac:dyDescent="0.2">
+        <v>-11.449592539492453</v>
+      </c>
+    </row>
+    <row r="119" spans="8:12">
       <c r="H119">
         <f t="shared" si="6"/>
         <v>152.00804447801784</v>
       </c>
       <c r="I119">
         <f t="shared" si="7"/>
-        <v>3807362.7218651325</v>
+        <v>-291.15468493453227</v>
       </c>
       <c r="K119">
         <f t="shared" si="8"/>
@@ -4517,17 +4788,17 @@
       </c>
       <c r="L119">
         <f t="shared" si="9"/>
-        <v>149896.17015217058</v>
-      </c>
-    </row>
-    <row r="120" spans="8:12" x14ac:dyDescent="0.2">
+        <v>-11.462782871438279</v>
+      </c>
+    </row>
+    <row r="120" spans="8:12">
       <c r="H120">
         <f t="shared" si="6"/>
         <v>153.5846155427862</v>
       </c>
       <c r="I120">
         <f t="shared" si="7"/>
-        <v>3807362.6360298647</v>
+        <v>-291.2405202020891</v>
       </c>
       <c r="K120">
         <f t="shared" si="8"/>
@@ -4535,17 +4806,17 @@
       </c>
       <c r="L120">
         <f t="shared" si="9"/>
-        <v>149896.16677282934</v>
-      </c>
-    </row>
-    <row r="121" spans="8:12" x14ac:dyDescent="0.2">
+        <v>-11.466162212680674</v>
+      </c>
+    </row>
+    <row r="121" spans="8:12">
       <c r="H121">
         <f t="shared" si="6"/>
         <v>154.60391534445807</v>
       </c>
       <c r="I121">
         <f t="shared" si="7"/>
-        <v>3807362.5086614033</v>
+        <v>-291.36788866342977</v>
       </c>
       <c r="K121">
         <f t="shared" si="8"/>
@@ -4553,7 +4824,7 @@
       </c>
       <c r="L121">
         <f t="shared" si="9"/>
-        <v>149896.16175832297</v>
+        <v>-11.471176719032668</v>
       </c>
     </row>
   </sheetData>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk.DCPLPUBLIC.002\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B469E-4B27-4FEE-B089-CF2AE92CD219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A50D499C-20CA-4893-B60B-E6B926C13328}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>point 2</t>
   </si>
@@ -210,18 +209,9 @@
     <t>RES_LONG</t>
   </si>
   <si>
-    <t>RES_LAT^2*(LAT1-LAT2)^2+RES_LONG^2*(LONG1-LONG2)^2</t>
-  </si>
-  <si>
     <t>RES_LAT</t>
   </si>
   <si>
-    <t>'D^2</t>
-  </si>
-  <si>
-    <t>iter 0</t>
-  </si>
-  <si>
     <t>X [in]</t>
   </si>
   <si>
@@ -307,12 +297,15 @@
   </si>
   <si>
     <t>Y [mm]</t>
+  </si>
+  <si>
+    <t>DELTA_Y/DELTA_X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -668,6 +661,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -675,7 +669,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1345,6 +1338,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1352,7 +1346,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2996,11 +2989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590E80B-3FF8-468B-9994-B4031C3F2DF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3024,18 +3017,18 @@
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="P3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="8">
         <v>0</v>
@@ -3058,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP4" t="s">
         <v>69</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -3099,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="17.25">
@@ -3107,16 +3100,16 @@
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O9">
         <v>-4</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="17.25">
@@ -3409,7 +3402,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:9">
       <c r="B33">
         <v>40.810547100000001</v>
       </c>
@@ -3424,7 +3417,7 @@
         <v>40.811470014009501</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:9">
       <c r="B34">
         <v>40.810635400000002</v>
       </c>
@@ -3439,7 +3432,7 @@
         <v>40.8190857586658</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:9">
       <c r="B35">
         <v>40.810709500000002</v>
       </c>
@@ -3454,7 +3447,7 @@
         <v>-96.687916042139094</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:9">
       <c r="B36">
         <v>40.810821099999998</v>
       </c>
@@ -3469,7 +3462,7 @@
         <v>-96.691201279725405</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:9">
       <c r="B37">
         <v>40.810901299999998</v>
       </c>
@@ -3477,7 +3470,7 @@
         <v>-96.689129500000007</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:9">
       <c r="B38">
         <v>40.810935299999997</v>
       </c>
@@ -3492,7 +3485,7 @@
         <v>3.2852375863114958E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:9">
       <c r="B39">
         <v>40.8109714</v>
       </c>
@@ -3507,7 +3500,7 @@
         <v>-7.615744656298773E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:9">
       <c r="B40">
         <v>40.810997800000003</v>
       </c>
@@ -3515,7 +3508,7 @@
         <v>-96.688996000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:9">
       <c r="B41">
         <v>40.811018099999998</v>
       </c>
@@ -3526,7 +3519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:9">
       <c r="B42">
         <v>40.811034800000002</v>
       </c>
@@ -3534,18 +3527,15 @@
         <v>-96.688892100000004</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:9">
       <c r="B43">
         <v>40.811051599999999</v>
       </c>
       <c r="C43">
         <v>-96.688799500000002</v>
       </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44">
         <v>40.811084000000001</v>
       </c>
@@ -3553,10 +3543,17 @@
         <v>-96.688731099999998</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>91</v>
+      </c>
+      <c r="H44">
+        <v>-3.1415899999999999</v>
+      </c>
+      <c r="I44">
+        <f>H44*180/PI()</f>
+        <v>-179.99984796050427</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45">
         <v>40.811149999999998</v>
       </c>
@@ -3564,7 +3561,7 @@
         <v>-96.688690899999997</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:9">
       <c r="B46">
         <v>40.811249500000002</v>
       </c>
@@ -3572,48 +3569,60 @@
         <v>-96.688685500000005</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>61</v>
+      </c>
+      <c r="H46">
+        <f>1/(H39)*H44*H28/SQRT(1+H44^2)</f>
+        <v>27862.282018158359</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47">
         <v>40.811295200000004</v>
       </c>
       <c r="C47">
         <v>-96.688648000000001</v>
       </c>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47">
+        <f>1/H44*H46*H39/H38</f>
+        <v>20559.510454926225</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48">
         <v>40.811365199999997</v>
       </c>
       <c r="C48">
         <v>-96.688583600000001</v>
       </c>
-      <c r="G48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49">
         <v>40.811436299999997</v>
       </c>
       <c r="C49">
         <v>-96.688574200000005</v>
       </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49">
+        <f>H46/H47</f>
+        <v>1.3552016269668683</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50">
         <v>40.811520600000001</v>
       </c>
       <c r="C50">
         <v>-96.688608900000006</v>
       </c>
-      <c r="G50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51">
         <v>40.811566300000003</v>
       </c>
@@ -3622,18 +3631,16 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:10">
       <c r="B52">
         <v>40.811594700000001</v>
       </c>
       <c r="C52">
         <v>-96.688717499999996</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53">
         <v>40.811673900000002</v>
       </c>
@@ -3641,7 +3648,7 @@
         <v>-96.688775199999995</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:10">
       <c r="B54">
         <v>40.811719500000002</v>
       </c>
@@ -3649,10 +3656,10 @@
         <v>-96.688779199999999</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55">
         <v>40.811813399999998</v>
       </c>
@@ -3660,7 +3667,7 @@
         <v>-96.688735699999995</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:10">
       <c r="B56">
         <v>40.811899199999999</v>
       </c>
@@ -3668,10 +3675,10 @@
         <v>-96.688716200000002</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
       <c r="B57">
         <v>40.811943800000002</v>
       </c>
@@ -3679,7 +3686,7 @@
         <v>-96.688692099999997</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:10">
       <c r="B58">
         <v>40.811992600000004</v>
       </c>
@@ -3687,10 +3694,10 @@
         <v>-96.688673300000005</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59">
         <v>40.812033200000002</v>
       </c>
@@ -3698,13 +3705,17 @@
         <v>-96.688637099999994</v>
       </c>
       <c r="G59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s">
         <v>84</v>
       </c>
-      <c r="H59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="J59">
+        <f>(H61-H66)^2+(H60-H65)^2</f>
+        <v>48898.511880199985</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
       <c r="B60">
         <v>40.812047399999997</v>
       </c>
@@ -3719,8 +3730,12 @@
         <f>Q101</f>
         <v>-304.8381</v>
       </c>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="J60">
+        <f>SQRT(J59)</f>
+        <v>221.1300790941838</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61">
         <v>40.8120403</v>
       </c>
@@ -3736,7 +3751,7 @@
         <v>156.59099999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:10">
       <c r="B62">
         <v>40.812021000000001</v>
       </c>
@@ -3744,7 +3759,7 @@
         <v>-96.688399700000005</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:10">
       <c r="B63">
         <v>40.811991599999999</v>
       </c>
@@ -3752,10 +3767,10 @@
         <v>-96.688331300000002</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
       <c r="B64">
         <v>40.811976299999998</v>
       </c>
@@ -3763,10 +3778,10 @@
         <v>-96.688227999999995</v>
       </c>
       <c r="G64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s">
         <v>84</v>
-      </c>
-      <c r="H64" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -3811,7 +3826,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="G68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H68">
         <f>(H60-H65)/H39</f>
@@ -3835,7 +3850,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="P70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q70">
         <v>-1.18586005365013</v>
@@ -3860,7 +3875,7 @@
         <v>1.3663756584888245</v>
       </c>
       <c r="P71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -3878,7 +3893,7 @@
         <v>800</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H72">
         <f>1/H71</f>
@@ -3893,7 +3908,7 @@
         <v>360</v>
       </c>
       <c r="P73" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -3904,7 +3919,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="G74" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -3912,13 +3927,13 @@
         <v>42</v>
       </c>
       <c r="P75" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -3930,14 +3945,14 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="G76" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H76">
         <f>(H61-H66)/(G61-G66)</f>
         <v>20264.409574938942</v>
       </c>
       <c r="P76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q76" s="8">
         <f>0+$Q$73</f>
@@ -3957,7 +3972,7 @@
         <v>3.75</v>
       </c>
       <c r="G77" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H77">
         <f>H61-G61*H76</f>
@@ -3987,7 +4002,7 @@
         <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q79" s="8">
         <f t="shared" ref="Q79:Q80" si="4">0+$Q$73</f>
@@ -4024,7 +4039,7 @@
         <v>95.25</v>
       </c>
       <c r="G81" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H81">
         <f>(H60-H65)/(G60-G65)</f>
@@ -4035,14 +4050,14 @@
     </row>
     <row r="82" spans="1:18">
       <c r="G82" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H82">
         <f>H60-G60*H81</f>
         <v>-1130325.3048330136</v>
       </c>
       <c r="P82" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q82" s="8">
         <f>AVERAGE(Q76:Q79)</f>
@@ -4069,16 +4084,16 @@
     </row>
     <row r="85" spans="1:18">
       <c r="H85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L85" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q85">
         <f>Q82</f>
@@ -4109,19 +4124,19 @@
     </row>
     <row r="87" spans="1:18">
       <c r="H87">
-        <f t="shared" ref="H87:H131" si="6">$H$76*C33+$H$77</f>
+        <f t="shared" ref="H87:H121" si="6">$H$76*C33+$H$77</f>
         <v>131.83887762809172</v>
       </c>
       <c r="I87">
-        <f t="shared" ref="I87:I131" si="7">B33*$H$81+$H$82</f>
+        <f t="shared" ref="I87:I121" si="7">B33*$H$81+$H$82</f>
         <v>-330.39247771329246</v>
       </c>
       <c r="K87">
-        <f t="shared" ref="K87:K122" si="8">H87/25.4</f>
+        <f t="shared" ref="K87:K121" si="8">H87/25.4</f>
         <v>5.1905069932319581</v>
       </c>
       <c r="L87">
-        <f t="shared" ref="L87:L122" si="9">I87/25.4</f>
+        <f t="shared" ref="L87:L121" si="9">I87/25.4</f>
         <v>-13.00757786272805</v>
       </c>
       <c r="Q87">
@@ -4216,7 +4231,7 @@
         <v>-12.621460873166129</v>
       </c>
       <c r="P91" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -4285,7 +4300,7 @@
         <v>-12.51626525065077</v>
       </c>
       <c r="P94" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -4393,7 +4408,7 @@
         <v>-12.350350496804666</v>
       </c>
       <c r="P99" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="8:17">
@@ -4466,7 +4481,7 @@
         <v>-12.115758808062038</v>
       </c>
       <c r="P102" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="8:17">
@@ -4829,11 +4844,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://github.com/Frederic-jyrg/ouitoo/blob/main/info/union-plaza-ocad-4000-04-09-2021.png" xr:uid="{F36797D3-B7CD-4738-8373-01049BDD9CE9}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{4725586A-6540-4898-9BA4-B4F900DC2A33}"/>
-    <hyperlink ref="B4" r:id="rId3" location=":~:text=9%2D20%2D2019-,UNION%20PLAZA%3A,-name%20of%20the" xr:uid="{6DA38D4F-150B-4785-8717-B6A0B13A8407}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{73D06DC6-584C-453C-BCB1-0AB65A382E63}"/>
-    <hyperlink ref="C69" r:id="rId5" xr:uid="{17666554-B772-4F05-8A41-16411EDCC2A2}"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://github.com/Frederic-jyrg/ouitoo/blob/main/info/union-plaza-ocad-4000-04-09-2021.png"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3" location=":~:text=9%2D20%2D2019-,UNION%20PLAZA%3A,-name%20of%20the"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="C69" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk.DCPLPUBLIC.002\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638AC18F-9119-4212-A665-5EE8636672AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -305,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -661,7 +662,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -669,6 +669,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1338,7 +1339,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1346,6 +1346,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2505,7 +2506,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>509759</xdr:colOff>
+      <xdr:colOff>509760</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>77463</xdr:rowOff>
     </xdr:to>
@@ -2989,11 +2990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3003,6 +3004,7 @@
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.25" customWidth="1"/>
   </cols>
@@ -3402,7 +3404,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:10">
       <c r="B33">
         <v>40.810547100000001</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>40.811470014009501</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:10">
       <c r="B34">
         <v>40.810635400000002</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>40.8190857586658</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:10">
       <c r="B35">
         <v>40.810709500000002</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>-96.687916042139094</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:10">
       <c r="B36">
         <v>40.810821099999998</v>
       </c>
@@ -3462,7 +3464,7 @@
         <v>-96.691201279725405</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:10">
       <c r="B37">
         <v>40.810901299999998</v>
       </c>
@@ -3470,7 +3472,7 @@
         <v>-96.689129500000007</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:10">
       <c r="B38">
         <v>40.810935299999997</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>3.2852375863114958E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:10">
       <c r="B39">
         <v>40.8109714</v>
       </c>
@@ -3500,7 +3502,7 @@
         <v>-7.615744656298773E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:10">
       <c r="B40">
         <v>40.810997800000003</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>-96.688996000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:10">
       <c r="B41">
         <v>40.811018099999998</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:10">
       <c r="B42">
         <v>40.811034800000002</v>
       </c>
@@ -3527,7 +3529,7 @@
         <v>-96.688892100000004</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:10">
       <c r="B43">
         <v>40.811051599999999</v>
       </c>
@@ -3535,7 +3537,7 @@
         <v>-96.688799500000002</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:10">
       <c r="B44">
         <v>40.811084000000001</v>
       </c>
@@ -3546,14 +3548,14 @@
         <v>91</v>
       </c>
       <c r="H44">
-        <v>-3.1415899999999999</v>
-      </c>
-      <c r="I44">
-        <f>H44*180/PI()</f>
-        <v>-179.99984796050427</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>-2.9460000000000002</v>
+      </c>
+      <c r="J44" t="str">
+        <f>CONCATENATE("Azimuth P or M [deg]: ",ROUND(90-ABS(ATAN(H44)*180/PI()),2))</f>
+        <v>Azimuth P or M [deg]: 18.75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45">
         <v>40.811149999999998</v>
       </c>
@@ -3561,7 +3563,7 @@
         <v>-96.688690899999997</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:10">
       <c r="B46">
         <v>40.811249500000002</v>
       </c>
@@ -3573,10 +3575,10 @@
       </c>
       <c r="H46">
         <f>1/(H39)*H44*H28/SQRT(1+H44^2)</f>
-        <v>27862.282018158359</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>27688.096254830434</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47">
         <v>40.811295200000004</v>
       </c>
@@ -3588,10 +3590,10 @@
       </c>
       <c r="H47">
         <f>1/H44*H46*H39/H38</f>
-        <v>20559.510454926225</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>21787.427002932927</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48">
         <v>40.811365199999997</v>
       </c>
@@ -3611,7 +3613,7 @@
       </c>
       <c r="H49">
         <f>H46/H47</f>
-        <v>1.3552016269668683</v>
+        <v>1.2708291002468159</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -4844,11 +4846,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://github.com/Frederic-jyrg/ouitoo/blob/main/info/union-plaza-ocad-4000-04-09-2021.png"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3" location=":~:text=9%2D20%2D2019-,UNION%20PLAZA%3A,-name%20of%20the"/>
-    <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="C69" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://github.com/Frederic-jyrg/ouitoo/blob/main/info/union-plaza-ocad-4000-04-09-2021.png" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" location=":~:text=9%2D20%2D2019-,UNION%20PLAZA%3A,-name%20of%20the" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C69" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638AC18F-9119-4212-A665-5EE8636672AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF6C9A8-7E13-4302-8516-8D3035A69470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>point 2</t>
   </si>
@@ -207,12 +207,6 @@
     <t>LONG1-LONG2</t>
   </si>
   <si>
-    <t>RES_LONG</t>
-  </si>
-  <si>
-    <t>RES_LAT</t>
-  </si>
-  <si>
     <t>X [in]</t>
   </si>
   <si>
@@ -301,6 +295,36 @@
   </si>
   <si>
     <t>DELTA_Y/DELTA_X</t>
+  </si>
+  <si>
+    <t>Device size (px)</t>
+  </si>
+  <si>
+    <t>Screen Width</t>
+  </si>
+  <si>
+    <t>Screen Height</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>from center</t>
+  </si>
+  <si>
+    <t>moves from center</t>
+  </si>
+  <si>
+    <t>moves from pt1 (REF)</t>
+  </si>
+  <si>
+    <t>RES_LAT [mm/deg]</t>
+  </si>
+  <si>
+    <t>RES_LONG [mm/deg]</t>
   </si>
 </sst>
 </file>
@@ -2669,6 +2693,130 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>433917</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>568960</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631129B7-26B5-4A5C-BE37-79099F7FBBA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13292667" y="10128250"/>
+          <a:ext cx="822960" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>433913</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>179915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>574611</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>21168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE60935-6262-4898-BD70-8AA154A41B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13292663" y="10403415"/>
+          <a:ext cx="828615" cy="1280586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2993,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3019,18 +3167,18 @@
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="P3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="8">
         <v>0</v>
@@ -3053,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AP4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -3094,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="17.25">
@@ -3102,16 +3250,16 @@
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O9">
         <v>-4</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="17.25">
@@ -3545,7 +3693,7 @@
         <v>-96.688731099999998</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H44">
         <v>-2.9460000000000002</v>
@@ -3571,7 +3719,7 @@
         <v>-96.688685500000005</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H46">
         <f>1/(H39)*H44*H28/SQRT(1+H44^2)</f>
@@ -3586,7 +3734,7 @@
         <v>-96.688648000000001</v>
       </c>
       <c r="G47" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="H47">
         <f>1/H44*H46*H39/H38</f>
@@ -3601,7 +3749,7 @@
         <v>-96.688583600000001</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:16">
       <c r="B49">
         <v>40.811436299999997</v>
       </c>
@@ -3616,7 +3764,7 @@
         <v>1.2708291002468159</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:16">
       <c r="B50">
         <v>40.811520600000001</v>
       </c>
@@ -3624,7 +3772,7 @@
         <v>-96.688608900000006</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:16">
       <c r="B51">
         <v>40.811566300000003</v>
       </c>
@@ -3632,8 +3780,11 @@
         <v>-96.688666600000005</v>
       </c>
       <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="P51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16">
       <c r="B52">
         <v>40.811594700000001</v>
       </c>
@@ -3641,16 +3792,30 @@
         <v>-96.688717499999996</v>
       </c>
       <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="O52" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52">
+        <f>3.75*96</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16">
       <c r="B53">
         <v>40.811673900000002</v>
       </c>
       <c r="C53">
         <v>-96.688775199999995</v>
       </c>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="O53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53">
+        <f>96*8.333333333</f>
+        <v>799.99999996800011</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16">
       <c r="B54">
         <v>40.811719500000002</v>
       </c>
@@ -3658,10 +3823,10 @@
         <v>-96.688779199999999</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
       <c r="B55">
         <v>40.811813399999998</v>
       </c>
@@ -3669,7 +3834,7 @@
         <v>-96.688735699999995</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:16">
       <c r="B56">
         <v>40.811899199999999</v>
       </c>
@@ -3677,18 +3842,22 @@
         <v>-96.688716200000002</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16">
       <c r="B57">
         <v>40.811943800000002</v>
       </c>
       <c r="C57">
         <v>-96.688692099999997</v>
       </c>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="N57">
+        <f>360/1056</f>
+        <v>0.34090909090909088</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
       <c r="B58">
         <v>40.811992600000004</v>
       </c>
@@ -3696,10 +3865,14 @@
         <v>-96.688673300000005</v>
       </c>
       <c r="G58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
+        <v>78</v>
+      </c>
+      <c r="N58">
+        <f>800/1632</f>
+        <v>0.49019607843137253</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16">
       <c r="B59">
         <v>40.812033200000002</v>
       </c>
@@ -3707,17 +3880,17 @@
         <v>-96.688637099999994</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J59">
         <f>(H61-H66)^2+(H60-H65)^2</f>
         <v>48898.511880199985</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:16">
       <c r="B60">
         <v>40.812047399999997</v>
       </c>
@@ -3737,7 +3910,7 @@
         <v>221.1300790941838</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:16">
       <c r="B61">
         <v>40.8120403</v>
       </c>
@@ -3752,16 +3925,24 @@
         <f>P101</f>
         <v>156.59099999999998</v>
       </c>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="N61">
+        <f>1056/1632</f>
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16">
       <c r="B62">
         <v>40.812021000000001</v>
       </c>
       <c r="C62">
         <v>-96.688399700000005</v>
       </c>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="N62">
+        <f>360/800</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16">
       <c r="B63">
         <v>40.811991599999999</v>
       </c>
@@ -3769,10 +3950,10 @@
         <v>-96.688331300000002</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16">
       <c r="B64">
         <v>40.811976299999998</v>
       </c>
@@ -3780,10 +3961,10 @@
         <v>-96.688227999999995</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -3828,7 +4009,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="G68" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H68">
         <f>(H60-H65)/H39</f>
@@ -3843,7 +4024,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="H69">
         <f>(H61-H66)/H38</f>
@@ -3852,7 +4033,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="P70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q70">
         <v>-1.18586005365013</v>
@@ -3877,7 +4058,7 @@
         <v>1.3663756584888245</v>
       </c>
       <c r="P71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -3895,7 +4076,7 @@
         <v>800</v>
       </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H72">
         <f>1/H71</f>
@@ -3910,7 +4091,7 @@
         <v>360</v>
       </c>
       <c r="P73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -3921,7 +4102,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="G74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -3929,13 +4110,13 @@
         <v>42</v>
       </c>
       <c r="P75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -3947,14 +4128,14 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H76">
         <f>(H61-H66)/(G61-G66)</f>
         <v>20264.409574938942</v>
       </c>
       <c r="P76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q76" s="8">
         <f>0+$Q$73</f>
@@ -3974,7 +4155,7 @@
         <v>3.75</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H77">
         <f>H61-G61*H76</f>
@@ -4004,7 +4185,7 @@
         <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q79" s="8">
         <f t="shared" ref="Q79:Q80" si="4">0+$Q$73</f>
@@ -4041,7 +4222,7 @@
         <v>95.25</v>
       </c>
       <c r="G81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H81">
         <f>(H60-H65)/(G60-G65)</f>
@@ -4052,14 +4233,14 @@
     </row>
     <row r="82" spans="1:18">
       <c r="G82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H82">
         <f>H60-G60*H81</f>
         <v>-1130325.3048330136</v>
       </c>
       <c r="P82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q82" s="8">
         <f>AVERAGE(Q76:Q79)</f>
@@ -4086,16 +4267,16 @@
     </row>
     <row r="85" spans="1:18">
       <c r="H85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q85">
         <f>Q82</f>
@@ -4233,7 +4414,7 @@
         <v>-12.621460873166129</v>
       </c>
       <c r="P91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -4302,7 +4483,7 @@
         <v>-12.51626525065077</v>
       </c>
       <c r="P94" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -4353,7 +4534,7 @@
         <v>-3.6995000000000005</v>
       </c>
     </row>
-    <row r="97" spans="8:17">
+    <row r="97" spans="8:25">
       <c r="H97">
         <f t="shared" si="6"/>
         <v>138.68824806436896</v>
@@ -4371,7 +4552,7 @@
         <v>-12.457617328467405</v>
       </c>
     </row>
-    <row r="98" spans="8:17">
+    <row r="98" spans="8:25">
       <c r="H98">
         <f t="shared" si="6"/>
         <v>140.07433367939666</v>
@@ -4392,7 +4573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="8:17">
+    <row r="99" spans="8:25">
       <c r="H99">
         <f t="shared" si="6"/>
         <v>140.88896294427104</v>
@@ -4410,10 +4591,10 @@
         <v>-12.350350496804666</v>
       </c>
       <c r="P99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="8:17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="8:25">
       <c r="H100">
         <f t="shared" si="6"/>
         <v>140.99839075584896</v>
@@ -4439,7 +4620,7 @@
         <v>-199.00899999999999</v>
       </c>
     </row>
-    <row r="101" spans="8:17">
+    <row r="101" spans="8:25">
       <c r="H101">
         <f t="shared" si="6"/>
         <v>141.75830611493438</v>
@@ -4465,7 +4646,7 @@
         <v>-304.8381</v>
       </c>
     </row>
-    <row r="102" spans="8:17">
+    <row r="102" spans="8:25">
       <c r="H102">
         <f t="shared" si="6"/>
         <v>143.0633340915665</v>
@@ -4483,10 +4664,10 @@
         <v>-12.115758808062038</v>
       </c>
       <c r="P102" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="8:17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="8:25">
       <c r="H103">
         <f t="shared" si="6"/>
         <v>143.25381954154</v>
@@ -4512,7 +4693,7 @@
         <v>11.861800000000001</v>
       </c>
     </row>
-    <row r="104" spans="8:17">
+    <row r="104" spans="8:25">
       <c r="H104">
         <f t="shared" si="6"/>
         <v>142.55064452928491</v>
@@ -4538,7 +4719,7 @@
         <v>-93.967300000000009</v>
       </c>
     </row>
-    <row r="105" spans="8:17">
+    <row r="105" spans="8:25">
       <c r="H105">
         <f t="shared" si="6"/>
         <v>141.38138809683733</v>
@@ -4556,7 +4737,7 @@
         <v>-11.89653767139915</v>
       </c>
     </row>
-    <row r="106" spans="8:17">
+    <row r="106" spans="8:25">
       <c r="H106">
         <f t="shared" si="6"/>
         <v>140.34992964961566</v>
@@ -4573,8 +4754,11 @@
         <f t="shared" si="9"/>
         <v>-11.865578545193284</v>
       </c>
-    </row>
-    <row r="107" spans="8:17">
+      <c r="P106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="8:25">
       <c r="H107">
         <f t="shared" si="6"/>
         <v>139.18067321716808</v>
@@ -4591,8 +4775,23 @@
         <f t="shared" si="9"/>
         <v>-11.779241827023252</v>
       </c>
-    </row>
-    <row r="108" spans="8:17">
+      <c r="P107" t="s">
+        <v>74</v>
+      </c>
+      <c r="T107" t="s">
+        <v>94</v>
+      </c>
+      <c r="U107" t="s">
+        <v>73</v>
+      </c>
+      <c r="V107" t="s">
+        <v>95</v>
+      </c>
+      <c r="W107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="8:25">
       <c r="H108">
         <f t="shared" si="6"/>
         <v>139.0996155787725</v>
@@ -4609,8 +4808,30 @@
         <f t="shared" si="9"/>
         <v>-11.729532807476922</v>
       </c>
-    </row>
-    <row r="109" spans="8:17">
+      <c r="P108">
+        <f>P92*96</f>
+        <v>411.84000000000003</v>
+      </c>
+      <c r="Q108">
+        <f>Q92*96</f>
+        <v>-752.16</v>
+      </c>
+      <c r="T108">
+        <v>1056</v>
+      </c>
+      <c r="U108">
+        <v>528</v>
+      </c>
+      <c r="V108">
+        <f>P109-U108</f>
+        <v>63.839999999999918</v>
+      </c>
+      <c r="W108">
+        <f>-V108</f>
+        <v>-63.839999999999918</v>
+      </c>
+    </row>
+    <row r="109" spans="8:25">
       <c r="H109">
         <f t="shared" si="6"/>
         <v>139.98111739521846</v>
@@ -4627,8 +4848,30 @@
         <f t="shared" si="9"/>
         <v>-11.627171471170481</v>
       </c>
-    </row>
-    <row r="110" spans="8:17">
+      <c r="P109">
+        <f>P93*96</f>
+        <v>591.83999999999992</v>
+      </c>
+      <c r="Q109">
+        <f>Q93*96</f>
+        <v>-1152.144</v>
+      </c>
+      <c r="T109">
+        <v>1632</v>
+      </c>
+      <c r="U109">
+        <v>-816</v>
+      </c>
+      <c r="V109">
+        <f>-(Q109-U109)</f>
+        <v>336.14400000000001</v>
+      </c>
+      <c r="W109">
+        <f>-V109</f>
+        <v>-336.14400000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="8:25">
       <c r="H110">
         <f t="shared" si="6"/>
         <v>140.37627338198945</v>
@@ -4645,8 +4888,26 @@
         <f t="shared" si="9"/>
         <v>-11.53364002649621</v>
       </c>
-    </row>
-    <row r="111" spans="8:17">
+      <c r="P110" t="s">
+        <v>75</v>
+      </c>
+      <c r="T110" t="s">
+        <v>94</v>
+      </c>
+      <c r="U110" t="s">
+        <v>73</v>
+      </c>
+      <c r="V110" t="s">
+        <v>95</v>
+      </c>
+      <c r="W110" t="s">
+        <v>96</v>
+      </c>
+      <c r="X110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="8:25">
       <c r="H111">
         <f t="shared" si="6"/>
         <v>140.8646456527058</v>
@@ -4663,8 +4924,38 @@
         <f t="shared" si="9"/>
         <v>-11.485021117026001</v>
       </c>
-    </row>
-    <row r="112" spans="8:17">
+      <c r="P111">
+        <f>P95*96</f>
+        <v>160.22399999999999</v>
+      </c>
+      <c r="Q111">
+        <f>Q95*96</f>
+        <v>44.832000000000001</v>
+      </c>
+      <c r="T111">
+        <v>1056</v>
+      </c>
+      <c r="U111">
+        <v>528</v>
+      </c>
+      <c r="V111">
+        <f>P112-U111</f>
+        <v>-187.77599999999995</v>
+      </c>
+      <c r="W111">
+        <f>-V111</f>
+        <v>187.77599999999995</v>
+      </c>
+      <c r="X111">
+        <f>-(V111-V108)</f>
+        <v>251.61599999999987</v>
+      </c>
+      <c r="Y111">
+        <f>(W111-W108)</f>
+        <v>251.61599999999987</v>
+      </c>
+    </row>
+    <row r="112" spans="8:25">
       <c r="H112">
         <f t="shared" si="6"/>
         <v>141.24561655265279</v>
@@ -4681,8 +4972,38 @@
         <f t="shared" si="9"/>
         <v>-11.431823745223246</v>
       </c>
-    </row>
-    <row r="113" spans="8:12">
+      <c r="P112">
+        <f>P96*96</f>
+        <v>340.22400000000005</v>
+      </c>
+      <c r="Q112">
+        <f>Q96*96</f>
+        <v>-355.15200000000004</v>
+      </c>
+      <c r="T112">
+        <v>1632</v>
+      </c>
+      <c r="U112">
+        <v>-816</v>
+      </c>
+      <c r="V112">
+        <f>-(Q112-U112)</f>
+        <v>-460.84799999999996</v>
+      </c>
+      <c r="W112">
+        <f>-V112</f>
+        <v>460.84799999999996</v>
+      </c>
+      <c r="X112">
+        <f>-(V112-V109)</f>
+        <v>796.99199999999996</v>
+      </c>
+      <c r="Y112">
+        <f>(W112-W109)</f>
+        <v>796.99199999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="8:24">
       <c r="H113">
         <f t="shared" si="6"/>
         <v>141.97918817936443</v>
@@ -4700,7 +5021,7 @@
         <v>-11.387565276066693</v>
       </c>
     </row>
-    <row r="114" spans="8:12">
+    <row r="114" spans="8:24">
       <c r="H114">
         <f t="shared" si="6"/>
         <v>143.14844461181201</v>
@@ -4717,8 +5038,12 @@
         <f t="shared" si="9"/>
         <v>-11.372085712963759</v>
       </c>
-    </row>
-    <row r="115" spans="8:12">
+      <c r="X114">
+        <f>SQRT(X111^2+X112^2)</f>
+        <v>835.76722807250576</v>
+      </c>
+    </row>
+    <row r="115" spans="8:24">
       <c r="H115">
         <f t="shared" si="6"/>
         <v>144.77972958260216</v>
@@ -4736,7 +5061,7 @@
         <v>-11.379825494510643</v>
       </c>
     </row>
-    <row r="116" spans="8:12">
+    <row r="116" spans="8:24">
       <c r="H116">
         <f t="shared" si="6"/>
         <v>146.78995901229791</v>
@@ -4754,7 +5079,7 @@
         <v>-11.400864619017382</v>
       </c>
     </row>
-    <row r="117" spans="8:12">
+    <row r="117" spans="8:24">
       <c r="H117">
         <f t="shared" si="6"/>
         <v>148.17604462732561</v>
@@ -4772,7 +5097,7 @@
         <v>-11.432913855308536</v>
       </c>
     </row>
-    <row r="118" spans="8:12">
+    <row r="118" spans="8:24">
       <c r="H118">
         <f t="shared" si="6"/>
         <v>150.26935813645832</v>
@@ -4790,7 +5115,7 @@
         <v>-11.449592539492453</v>
       </c>
     </row>
-    <row r="119" spans="8:12">
+    <row r="119" spans="8:24">
       <c r="H119">
         <f t="shared" si="6"/>
         <v>152.00804447801784</v>
@@ -4808,7 +5133,7 @@
         <v>-11.462782871438279</v>
       </c>
     </row>
-    <row r="120" spans="8:12">
+    <row r="120" spans="8:24">
       <c r="H120">
         <f t="shared" si="6"/>
         <v>153.5846155427862</v>
@@ -4826,7 +5151,7 @@
         <v>-11.466162212680674</v>
       </c>
     </row>
-    <row r="121" spans="8:12">
+    <row r="121" spans="8:24">
       <c r="H121">
         <f t="shared" si="6"/>
         <v>154.60391534445807</v>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF6C9A8-7E13-4302-8516-8D3035A69470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E1EE2-EAC8-45A3-A408-A3A01F09D16C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t>point 2</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>RES_LONG [mm/deg]</t>
+  </si>
+  <si>
+    <t>ACTUAL SCALE</t>
+  </si>
+  <si>
+    <t>deviation</t>
   </si>
 </sst>
 </file>
@@ -3141,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3937,6 +3943,13 @@
       <c r="C62">
         <v>-96.688399700000005</v>
       </c>
+      <c r="J62">
+        <f>E22*1000/(X114/96*25.4)</f>
+        <v>4028.0815873114207</v>
+      </c>
+      <c r="K62" t="s">
+        <v>100</v>
+      </c>
       <c r="N62">
         <f>360/800</f>
         <v>0.45</v>
@@ -3951,6 +3964,13 @@
       </c>
       <c r="G63" t="s">
         <v>81</v>
+      </c>
+      <c r="J63">
+        <f>1-J62/I22</f>
+        <v>-7.0203968278552686E-3</v>
+      </c>
+      <c r="K63" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="2:16">

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E1EE2-EAC8-45A3-A408-A3A01F09D16C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73469020-DD2F-4DDB-9352-6E4A089800CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>point 2</t>
   </si>
@@ -331,6 +331,24 @@
   </si>
   <si>
     <t>deviation</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>latitudes</t>
+  </si>
+  <si>
+    <t>longitudes</t>
+  </si>
+  <si>
+    <t>Y [px]</t>
+  </si>
+  <si>
+    <t>X [px]</t>
   </si>
 </sst>
 </file>
@@ -1413,6 +1431,509 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$134:$U$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-29.198176356963813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-29.711328649893403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-31.151218664832413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-31.763937820680439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-31.151218664832413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-29.098609494045377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-27.758286340162158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-24.166220290586352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-18.873858584091067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-14.715027314610779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.916168550029397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.8239443236961961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4148044576868415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.49371821526438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9073036443442106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7794246869161725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.711813889443874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.431758897379041</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.774089559912682</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3548526493832469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4564270228147507</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.962809887714684</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.2691694656386971</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0624909438192844</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5559938848018646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.401810341514647</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8417003564536572</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6142545370385051</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.033491446636617</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.198977950029075</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.796695480123162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0354442615062</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.947180358693004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.518593302927911</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52.477287091314793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.329758782871068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$134:$V$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-438.25302478484809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-432.72747482173145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-423.48682971391827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-415.73222266510129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-404.0532193351537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-395.66024382412434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-392.10212452989072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-388.32423904445022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-385.5614640628919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-383.43705754354596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-381.68939306586981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-379.93126353342086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-376.54058514628559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-369.63364769425243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-359.22091623023152</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-354.43838529661298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-347.11284557450563</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-339.67219022661448</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-330.85014738887548</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-326.06761645525694</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-323.09554033912718</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-314.80721539538354</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-310.03514951840043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-300.20846123341471</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-291.22944254428148</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-286.56202723458409</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-281.45507954154164</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-277.20626650284976</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-275.72022844478488</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-276.46324747335166</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-278.48300342541188</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-281.55973010975868</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-283.16088379174471</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-284.42715565860271</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-284.75157241802663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-285.23296502791345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C2A-4174-8515-66B745545685}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830174352"/>
+        <c:axId val="1222293632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1830174352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222293632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1222293632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830174352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1493,6 +2014,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2010,6 +2571,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2823,6 +3900,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>169331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>243416</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>10582</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0869EB-75CB-4686-9A43-4BC67A9CB944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3145,10 +4258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP121"/>
+  <dimension ref="A1:AP169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="G101" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5116,6 +6229,9 @@
         <f t="shared" si="9"/>
         <v>-11.432913855308536</v>
       </c>
+      <c r="T117" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="118" spans="8:24">
       <c r="H118">
@@ -5134,6 +6250,12 @@
         <f t="shared" si="9"/>
         <v>-11.449592539492453</v>
       </c>
+      <c r="T118" t="s">
+        <v>79</v>
+      </c>
+      <c r="U118" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="119" spans="8:24">
       <c r="H119">
@@ -5152,6 +6274,13 @@
         <f t="shared" si="9"/>
         <v>-11.462782871438279</v>
       </c>
+      <c r="T119">
+        <v>40.811470014009501</v>
+      </c>
+      <c r="U119">
+        <f>V109</f>
+        <v>336.14400000000001</v>
+      </c>
     </row>
     <row r="120" spans="8:24">
       <c r="H120">
@@ -5170,6 +6299,13 @@
         <f t="shared" si="9"/>
         <v>-11.466162212680674</v>
       </c>
+      <c r="T120">
+        <v>-96.687916042139094</v>
+      </c>
+      <c r="U120">
+        <f>V108</f>
+        <v>63.839999999999918</v>
+      </c>
     </row>
     <row r="121" spans="8:24">
       <c r="H121">
@@ -5187,6 +6323,669 @@
       <c r="L121">
         <f t="shared" si="9"/>
         <v>-11.471176719032668</v>
+      </c>
+    </row>
+    <row r="122" spans="8:24">
+      <c r="T122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="8:24">
+      <c r="T123" t="s">
+        <v>79</v>
+      </c>
+      <c r="U123" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="8:24">
+      <c r="T124">
+        <v>40.8190857586658</v>
+      </c>
+      <c r="U124">
+        <f>V112</f>
+        <v>-460.84799999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="8:24">
+      <c r="T125">
+        <v>-96.691201279725405</v>
+      </c>
+      <c r="U125">
+        <f>V111</f>
+        <v>-187.77599999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="8:24">
+      <c r="S127" t="s">
+        <v>104</v>
+      </c>
+      <c r="T127" t="s">
+        <v>102</v>
+      </c>
+      <c r="U127">
+        <f>(U119-U124)/(T119-T124)</f>
+        <v>-104650.56747153803</v>
+      </c>
+    </row>
+    <row r="128" spans="8:24">
+      <c r="T128" t="s">
+        <v>103</v>
+      </c>
+      <c r="U128">
+        <f>U119-U127*T119</f>
+        <v>4271279.6403137529</v>
+      </c>
+    </row>
+    <row r="130" spans="18:22">
+      <c r="S130" t="s">
+        <v>105</v>
+      </c>
+      <c r="T130" t="s">
+        <v>102</v>
+      </c>
+      <c r="U130">
+        <f>(U120-U125)/(T120-T125)</f>
+        <v>76589.894456462134</v>
+      </c>
+    </row>
+    <row r="131" spans="18:22">
+      <c r="T131" t="s">
+        <v>103</v>
+      </c>
+      <c r="U131">
+        <f>U120-T120*U130</f>
+        <v>7405381.1248827055</v>
+      </c>
+    </row>
+    <row r="133" spans="18:22">
+      <c r="R133" t="s">
+        <v>28</v>
+      </c>
+      <c r="S133" t="s">
+        <v>29</v>
+      </c>
+      <c r="U133" t="s">
+        <v>107</v>
+      </c>
+      <c r="V133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="18:22">
+      <c r="R134">
+        <v>40.810494300000002</v>
+      </c>
+      <c r="S134">
+        <v>-96.689130800000001</v>
+      </c>
+      <c r="U134">
+        <f>$U$130*S134+$U$131</f>
+        <v>-29.198176356963813</v>
+      </c>
+      <c r="V134">
+        <f>-($U$127*R134+$U$128)</f>
+        <v>-438.25302478484809</v>
+      </c>
+    </row>
+    <row r="135" spans="18:22">
+      <c r="R135">
+        <v>40.810547100000001</v>
+      </c>
+      <c r="S135">
+        <v>-96.689137500000001</v>
+      </c>
+      <c r="U135">
+        <f>$U$130*S135+$U$131</f>
+        <v>-29.711328649893403</v>
+      </c>
+      <c r="V135">
+        <f t="shared" ref="V135:V169" si="10">-($U$127*R135+$U$128)</f>
+        <v>-432.72747482173145</v>
+      </c>
+    </row>
+    <row r="136" spans="18:22">
+      <c r="R136">
+        <v>40.810635400000002</v>
+      </c>
+      <c r="S136">
+        <v>-96.689156299999993</v>
+      </c>
+      <c r="U136">
+        <f>$U$130*S136+$U$131</f>
+        <v>-31.151218664832413</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="10"/>
+        <v>-423.48682971391827</v>
+      </c>
+    </row>
+    <row r="137" spans="18:22">
+      <c r="R137">
+        <v>40.810709500000002</v>
+      </c>
+      <c r="S137">
+        <v>-96.689164300000002</v>
+      </c>
+      <c r="U137">
+        <f>$U$130*S137+$U$131</f>
+        <v>-31.763937820680439</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="10"/>
+        <v>-415.73222266510129</v>
+      </c>
+    </row>
+    <row r="138" spans="18:22">
+      <c r="R138">
+        <v>40.810821099999998</v>
+      </c>
+      <c r="S138">
+        <v>-96.689156299999993</v>
+      </c>
+      <c r="U138">
+        <f>$U$130*S138+$U$131</f>
+        <v>-31.151218664832413</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="10"/>
+        <v>-404.0532193351537</v>
+      </c>
+    </row>
+    <row r="139" spans="18:22">
+      <c r="R139">
+        <v>40.810901299999998</v>
+      </c>
+      <c r="S139">
+        <v>-96.689129500000007</v>
+      </c>
+      <c r="U139">
+        <f>$U$130*S139+$U$131</f>
+        <v>-29.098609494045377</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="10"/>
+        <v>-395.66024382412434</v>
+      </c>
+    </row>
+    <row r="140" spans="18:22">
+      <c r="R140">
+        <v>40.810935299999997</v>
+      </c>
+      <c r="S140">
+        <v>-96.689111999999994</v>
+      </c>
+      <c r="U140">
+        <f>$U$130*S140+$U$131</f>
+        <v>-27.758286340162158</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="10"/>
+        <v>-392.10212452989072</v>
+      </c>
+    </row>
+    <row r="141" spans="18:22">
+      <c r="R141">
+        <v>40.8109714</v>
+      </c>
+      <c r="S141">
+        <v>-96.689065099999993</v>
+      </c>
+      <c r="U141">
+        <f>$U$130*S141+$U$131</f>
+        <v>-24.166220290586352</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="10"/>
+        <v>-388.32423904445022</v>
+      </c>
+    </row>
+    <row r="142" spans="18:22">
+      <c r="R142">
+        <v>40.810997800000003</v>
+      </c>
+      <c r="S142">
+        <v>-96.688996000000003</v>
+      </c>
+      <c r="U142">
+        <f>$U$130*S142+$U$131</f>
+        <v>-18.873858584091067</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="10"/>
+        <v>-385.5614640628919</v>
+      </c>
+    </row>
+    <row r="143" spans="18:22">
+      <c r="R143">
+        <v>40.811018099999998</v>
+      </c>
+      <c r="S143">
+        <v>-96.688941700000001</v>
+      </c>
+      <c r="U143">
+        <f>$U$130*S143+$U$131</f>
+        <v>-14.715027314610779</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="10"/>
+        <v>-383.43705754354596</v>
+      </c>
+    </row>
+    <row r="144" spans="18:22">
+      <c r="R144">
+        <v>40.811034800000002</v>
+      </c>
+      <c r="S144">
+        <v>-96.688892100000004</v>
+      </c>
+      <c r="U144">
+        <f>$U$130*S144+$U$131</f>
+        <v>-10.916168550029397</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="10"/>
+        <v>-381.68939306586981</v>
+      </c>
+    </row>
+    <row r="145" spans="18:22">
+      <c r="R145">
+        <v>40.811051599999999</v>
+      </c>
+      <c r="S145">
+        <v>-96.688799500000002</v>
+      </c>
+      <c r="U145">
+        <f>$U$130*S145+$U$131</f>
+        <v>-3.8239443236961961</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="10"/>
+        <v>-379.93126353342086</v>
+      </c>
+    </row>
+    <row r="146" spans="18:22">
+      <c r="R146">
+        <v>40.811084000000001</v>
+      </c>
+      <c r="S146">
+        <v>-96.688731099999998</v>
+      </c>
+      <c r="U146">
+        <f>$U$130*S146+$U$131</f>
+        <v>1.4148044576868415</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="10"/>
+        <v>-376.54058514628559</v>
+      </c>
+    </row>
+    <row r="147" spans="18:22">
+      <c r="R147">
+        <v>40.811149999999998</v>
+      </c>
+      <c r="S147">
+        <v>-96.688690899999997</v>
+      </c>
+      <c r="U147">
+        <f>$U$130*S147+$U$131</f>
+        <v>4.49371821526438</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="10"/>
+        <v>-369.63364769425243</v>
+      </c>
+    </row>
+    <row r="148" spans="18:22">
+      <c r="R148">
+        <v>40.811249500000002</v>
+      </c>
+      <c r="S148">
+        <v>-96.688685500000005</v>
+      </c>
+      <c r="U148">
+        <f>$U$130*S148+$U$131</f>
+        <v>4.9073036443442106</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="10"/>
+        <v>-359.22091623023152</v>
+      </c>
+    </row>
+    <row r="149" spans="18:22">
+      <c r="R149">
+        <v>40.811295200000004</v>
+      </c>
+      <c r="S149">
+        <v>-96.688648000000001</v>
+      </c>
+      <c r="U149">
+        <f>$U$130*S149+$U$131</f>
+        <v>7.7794246869161725</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="10"/>
+        <v>-354.43838529661298</v>
+      </c>
+    </row>
+    <row r="150" spans="18:22">
+      <c r="R150">
+        <v>40.811365199999997</v>
+      </c>
+      <c r="S150">
+        <v>-96.688583600000001</v>
+      </c>
+      <c r="U150">
+        <f>$U$130*S150+$U$131</f>
+        <v>12.711813889443874</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="10"/>
+        <v>-347.11284557450563</v>
+      </c>
+    </row>
+    <row r="151" spans="18:22">
+      <c r="R151">
+        <v>40.811436299999997</v>
+      </c>
+      <c r="S151">
+        <v>-96.688574200000005</v>
+      </c>
+      <c r="U151">
+        <f>$U$130*S151+$U$131</f>
+        <v>13.431758897379041</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="10"/>
+        <v>-339.67219022661448</v>
+      </c>
+    </row>
+    <row r="152" spans="18:22">
+      <c r="R152">
+        <v>40.811520600000001</v>
+      </c>
+      <c r="S152">
+        <v>-96.688608900000006</v>
+      </c>
+      <c r="U152">
+        <f>$U$130*S152+$U$131</f>
+        <v>10.774089559912682</v>
+      </c>
+      <c r="V152">
+        <f t="shared" si="10"/>
+        <v>-330.85014738887548</v>
+      </c>
+    </row>
+    <row r="153" spans="18:22">
+      <c r="R153">
+        <v>40.811566300000003</v>
+      </c>
+      <c r="S153">
+        <v>-96.688666600000005</v>
+      </c>
+      <c r="U153">
+        <f>$U$130*S153+$U$131</f>
+        <v>6.3548526493832469</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="10"/>
+        <v>-326.06761645525694</v>
+      </c>
+    </row>
+    <row r="154" spans="18:22">
+      <c r="R154">
+        <v>40.811594700000001</v>
+      </c>
+      <c r="S154">
+        <v>-96.688717499999996</v>
+      </c>
+      <c r="U154">
+        <f>$U$130*S154+$U$131</f>
+        <v>2.4564270228147507</v>
+      </c>
+      <c r="V154">
+        <f t="shared" si="10"/>
+        <v>-323.09554033912718</v>
+      </c>
+    </row>
+    <row r="155" spans="18:22">
+      <c r="R155">
+        <v>40.811673900000002</v>
+      </c>
+      <c r="S155">
+        <v>-96.688775199999995</v>
+      </c>
+      <c r="U155">
+        <f>$U$130*S155+$U$131</f>
+        <v>-1.962809887714684</v>
+      </c>
+      <c r="V155">
+        <f t="shared" si="10"/>
+        <v>-314.80721539538354</v>
+      </c>
+    </row>
+    <row r="156" spans="18:22">
+      <c r="R156">
+        <v>40.811719500000002</v>
+      </c>
+      <c r="S156">
+        <v>-96.688779199999999</v>
+      </c>
+      <c r="U156">
+        <f>$U$130*S156+$U$131</f>
+        <v>-2.2691694656386971</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="10"/>
+        <v>-310.03514951840043</v>
+      </c>
+    </row>
+    <row r="157" spans="18:22">
+      <c r="R157">
+        <v>40.811813399999998</v>
+      </c>
+      <c r="S157">
+        <v>-96.688735699999995</v>
+      </c>
+      <c r="U157">
+        <f>$U$130*S157+$U$131</f>
+        <v>1.0624909438192844</v>
+      </c>
+      <c r="V157">
+        <f t="shared" si="10"/>
+        <v>-300.20846123341471</v>
+      </c>
+    </row>
+    <row r="158" spans="18:22">
+      <c r="R158">
+        <v>40.811899199999999</v>
+      </c>
+      <c r="S158">
+        <v>-96.688716200000002</v>
+      </c>
+      <c r="U158">
+        <f>$U$130*S158+$U$131</f>
+        <v>2.5559938848018646</v>
+      </c>
+      <c r="V158">
+        <f t="shared" si="10"/>
+        <v>-291.22944254428148</v>
+      </c>
+    </row>
+    <row r="159" spans="18:22">
+      <c r="R159">
+        <v>40.811943800000002</v>
+      </c>
+      <c r="S159">
+        <v>-96.688692099999997</v>
+      </c>
+      <c r="U159">
+        <f>$U$130*S159+$U$131</f>
+        <v>4.401810341514647</v>
+      </c>
+      <c r="V159">
+        <f t="shared" si="10"/>
+        <v>-286.56202723458409</v>
+      </c>
+    </row>
+    <row r="160" spans="18:22">
+      <c r="R160">
+        <v>40.811992600000004</v>
+      </c>
+      <c r="S160">
+        <v>-96.688673300000005</v>
+      </c>
+      <c r="U160">
+        <f>$U$130*S160+$U$131</f>
+        <v>5.8417003564536572</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="10"/>
+        <v>-281.45507954154164</v>
+      </c>
+    </row>
+    <row r="161" spans="18:22">
+      <c r="R161">
+        <v>40.812033200000002</v>
+      </c>
+      <c r="S161">
+        <v>-96.688637099999994</v>
+      </c>
+      <c r="U161">
+        <f>$U$130*S161+$U$131</f>
+        <v>8.6142545370385051</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="10"/>
+        <v>-277.20626650284976</v>
+      </c>
+    </row>
+    <row r="162" spans="18:22">
+      <c r="R162">
+        <v>40.812047399999997</v>
+      </c>
+      <c r="S162">
+        <v>-96.688579399999995</v>
+      </c>
+      <c r="U162">
+        <f>$U$130*S162+$U$131</f>
+        <v>13.033491446636617</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="10"/>
+        <v>-275.72022844478488</v>
+      </c>
+    </row>
+    <row r="163" spans="18:22">
+      <c r="R163">
+        <v>40.8120403</v>
+      </c>
+      <c r="S163">
+        <v>-96.688498899999999</v>
+      </c>
+      <c r="U163">
+        <f>$U$130*S163+$U$131</f>
+        <v>19.198977950029075</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="10"/>
+        <v>-276.46324747335166</v>
+      </c>
+    </row>
+    <row r="164" spans="18:22">
+      <c r="R164">
+        <v>40.812021000000001</v>
+      </c>
+      <c r="S164">
+        <v>-96.688399700000005</v>
+      </c>
+      <c r="U164">
+        <f>$U$130*S164+$U$131</f>
+        <v>26.796695480123162</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="10"/>
+        <v>-278.48300342541188</v>
+      </c>
+    </row>
+    <row r="165" spans="18:22">
+      <c r="R165">
+        <v>40.811991599999999</v>
+      </c>
+      <c r="S165">
+        <v>-96.688331300000002</v>
+      </c>
+      <c r="U165">
+        <f>$U$130*S165+$U$131</f>
+        <v>32.0354442615062</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="10"/>
+        <v>-281.55973010975868</v>
+      </c>
+    </row>
+    <row r="166" spans="18:22">
+      <c r="R166">
+        <v>40.811976299999998</v>
+      </c>
+      <c r="S166">
+        <v>-96.688227999999995</v>
+      </c>
+      <c r="U166">
+        <f>$U$130*S166+$U$131</f>
+        <v>39.947180358693004</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="10"/>
+        <v>-283.16088379174471</v>
+      </c>
+    </row>
+    <row r="167" spans="18:22">
+      <c r="R167">
+        <v>40.811964199999998</v>
+      </c>
+      <c r="S167">
+        <v>-96.688142200000001</v>
+      </c>
+      <c r="U167">
+        <f>$U$130*S167+$U$131</f>
+        <v>46.518593302927911</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="10"/>
+        <v>-284.42715565860271</v>
+      </c>
+    </row>
+    <row r="168" spans="18:22">
+      <c r="R168">
+        <v>40.811961099999998</v>
+      </c>
+      <c r="S168">
+        <v>-96.688064400000002</v>
+      </c>
+      <c r="U168">
+        <f>$U$130*S168+$U$131</f>
+        <v>52.477287091314793</v>
+      </c>
+      <c r="V168">
+        <f t="shared" si="10"/>
+        <v>-284.75157241802663</v>
+      </c>
+    </row>
+    <row r="169" spans="18:22">
+      <c r="R169">
+        <v>40.811956500000001</v>
+      </c>
+      <c r="S169">
+        <v>-96.688014100000004</v>
+      </c>
+      <c r="U169">
+        <f>$U$130*S169+$U$131</f>
+        <v>56.329758782871068</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="10"/>
+        <v>-285.23296502791345</v>
       </c>
     </row>
   </sheetData>

--- a/info-plotting/twiddling numbers -union plaza.xlsx
+++ b/info-plotting/twiddling numbers -union plaza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73469020-DD2F-4DDB-9352-6E4A089800CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C04B993-3E97-4EEF-B203-213DF54735A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4260,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G101" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="P98" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T124" sqref="T124:T125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
